--- a/raw_data/20200818_saline/20200818_Sensor2_Test_46.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_46.xlsx
@@ -1,825 +1,1241 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F439C5A5-5652-4AD8-9ADE-672723C4C358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>40873.362064</v>
+        <v>40873.362064000001</v>
       </c>
       <c r="B2" s="1">
         <v>11.353712</v>
       </c>
       <c r="C2" s="1">
-        <v>1258.910000</v>
+        <v>1258.9100000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-280.768000</v>
+        <v>-280.76799999999997</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>40883.718531</v>
+        <v>40883.718530999999</v>
       </c>
       <c r="G2" s="1">
         <v>11.356588</v>
       </c>
       <c r="H2" s="1">
-        <v>1279.470000</v>
+        <v>1279.47</v>
       </c>
       <c r="I2" s="1">
-        <v>-243.905000</v>
+        <v>-243.905</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>40894.190068</v>
+        <v>40894.190068000004</v>
       </c>
       <c r="L2" s="1">
-        <v>11.359497</v>
+        <v>11.359496999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1311.590000</v>
+        <v>1311.59</v>
       </c>
       <c r="N2" s="1">
-        <v>-191.725000</v>
+        <v>-191.72499999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>40904.389835</v>
+        <v>40904.389835000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>11.362331</v>
+        <v>11.362330999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1323.470000</v>
+        <v>1323.47</v>
       </c>
       <c r="S2" s="1">
-        <v>-176.712000</v>
+        <v>-176.71199999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>40914.980376</v>
       </c>
       <c r="V2" s="1">
-        <v>11.365272</v>
+        <v>11.365271999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1336.810000</v>
+        <v>1336.81</v>
       </c>
       <c r="X2" s="1">
-        <v>-166.223000</v>
+        <v>-166.22300000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>40925.726698</v>
+        <v>40925.726697999999</v>
       </c>
       <c r="AA2" s="1">
         <v>11.368257</v>
       </c>
       <c r="AB2" s="1">
-        <v>1355.030000</v>
+        <v>1355.03</v>
       </c>
       <c r="AC2" s="1">
-        <v>-166.830000</v>
+        <v>-166.83</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>40936.311357</v>
+        <v>40936.311356999999</v>
       </c>
       <c r="AF2" s="1">
         <v>11.371198</v>
       </c>
       <c r="AG2" s="1">
-        <v>1368.640000</v>
+        <v>1368.64</v>
       </c>
       <c r="AH2" s="1">
-        <v>-177.582000</v>
+        <v>-177.58199999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>40946.842382</v>
+        <v>40946.842382000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>11.374123</v>
+        <v>11.374123000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1389.880000</v>
+        <v>1389.88</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.386000</v>
+        <v>-208.386</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>40957.126929</v>
+        <v>40957.126928999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>11.376980</v>
+        <v>11.37698</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1411.930000</v>
+        <v>1411.93</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.824000</v>
+        <v>-252.82400000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>40967.320247</v>
+        <v>40967.320247000003</v>
       </c>
       <c r="AU2" s="1">
         <v>11.379811</v>
       </c>
       <c r="AV2" s="1">
-        <v>1436.550000</v>
+        <v>1436.55</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.041000</v>
+        <v>-313.041</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>40978.109190</v>
+        <v>40978.109190000003</v>
       </c>
       <c r="AZ2" s="1">
-        <v>11.382808</v>
+        <v>11.382808000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1455.820000</v>
+        <v>1455.82</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.320000</v>
+        <v>-365.32</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>40988.663342</v>
       </c>
       <c r="BE2" s="1">
-        <v>11.385740</v>
+        <v>11.38574</v>
       </c>
       <c r="BF2" s="1">
-        <v>1540.660000</v>
+        <v>1540.66</v>
       </c>
       <c r="BG2" s="1">
-        <v>-614.991000</v>
+        <v>-614.99099999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>40999.328938</v>
+        <v>40999.328937999999</v>
       </c>
       <c r="BJ2" s="1">
         <v>11.388702</v>
       </c>
       <c r="BK2" s="1">
-        <v>1694.200000</v>
+        <v>1694.2</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1063.180000</v>
+        <v>-1063.18</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>41011.423481</v>
+        <v>41011.423480999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>11.392062</v>
+        <v>11.392061999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1987.630000</v>
+        <v>1987.63</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1841.270000</v>
+        <v>-1841.27</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>41021.851869</v>
+        <v>41021.851868999998</v>
       </c>
       <c r="BT2" s="1">
         <v>11.394959</v>
       </c>
       <c r="BU2" s="1">
-        <v>2375.000000</v>
+        <v>2375</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2739.710000</v>
+        <v>-2739.71</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>41032.571407</v>
+        <v>41032.571407000003</v>
       </c>
       <c r="BY2" s="1">
-        <v>11.397937</v>
+        <v>11.397937000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2856.110000</v>
+        <v>2856.11</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3727.290000</v>
+        <v>-3727.29</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>41044.741741</v>
+        <v>41044.741740999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>11.401317</v>
+        <v>11.401317000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4279.410000</v>
+        <v>4279.41</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6120.760000</v>
+        <v>-6120.76</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>40873.706287</v>
+        <v>40873.706287000001</v>
       </c>
       <c r="B3" s="1">
         <v>11.353807</v>
       </c>
       <c r="C3" s="1">
-        <v>1258.760000</v>
+        <v>1258.76</v>
       </c>
       <c r="D3" s="1">
-        <v>-280.485000</v>
+        <v>-280.48500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>40884.094994</v>
+        <v>40884.094993999999</v>
       </c>
       <c r="G3" s="1">
         <v>11.356693</v>
       </c>
       <c r="H3" s="1">
-        <v>1279.890000</v>
+        <v>1279.8900000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-243.224000</v>
+        <v>-243.22399999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>40894.562595</v>
+        <v>40894.562595000003</v>
       </c>
       <c r="L3" s="1">
         <v>11.359601</v>
       </c>
       <c r="M3" s="1">
-        <v>1311.520000</v>
+        <v>1311.52</v>
       </c>
       <c r="N3" s="1">
-        <v>-191.739000</v>
+        <v>-191.739</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>40905.071827</v>
       </c>
       <c r="Q3" s="1">
-        <v>11.362520</v>
+        <v>11.36252</v>
       </c>
       <c r="R3" s="1">
-        <v>1323.350000</v>
+        <v>1323.35</v>
       </c>
       <c r="S3" s="1">
-        <v>-176.739000</v>
+        <v>-176.739</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>40915.638568</v>
+        <v>40915.638568000002</v>
       </c>
       <c r="V3" s="1">
-        <v>11.365455</v>
+        <v>11.365455000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1336.760000</v>
+        <v>1336.76</v>
       </c>
       <c r="X3" s="1">
-        <v>-166.252000</v>
+        <v>-166.25200000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>40926.156732</v>
+        <v>40926.156732000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>11.368377</v>
+        <v>11.368377000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1355.160000</v>
+        <v>1355.16</v>
       </c>
       <c r="AC3" s="1">
-        <v>-166.553000</v>
+        <v>-166.553</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>40936.717825</v>
@@ -828,195 +1244,195 @@
         <v>11.371311</v>
       </c>
       <c r="AG3" s="1">
-        <v>1368.600000</v>
+        <v>1368.6</v>
       </c>
       <c r="AH3" s="1">
-        <v>-177.525000</v>
+        <v>-177.52500000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>40947.191102</v>
+        <v>40947.191101999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>11.374220</v>
+        <v>11.374219999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1389.880000</v>
+        <v>1389.88</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.389000</v>
+        <v>-208.38900000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>40957.492482</v>
+        <v>40957.492482000001</v>
       </c>
       <c r="AP3" s="1">
         <v>11.377081</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1411.940000</v>
+        <v>1411.94</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.820000</v>
+        <v>-252.82</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>40967.702657</v>
+        <v>40967.702657000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>11.379917</v>
+        <v>11.379917000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1436.540000</v>
+        <v>1436.54</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.070000</v>
+        <v>-313.07</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>40978.469317</v>
+        <v>40978.469317000003</v>
       </c>
       <c r="AZ3" s="1">
         <v>11.382908</v>
       </c>
       <c r="BA3" s="1">
-        <v>1455.780000</v>
+        <v>1455.78</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.332000</v>
+        <v>-365.33199999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>40989.096448</v>
+        <v>40989.096447999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>11.385860</v>
+        <v>11.385859999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1540.660000</v>
+        <v>1540.66</v>
       </c>
       <c r="BG3" s="1">
-        <v>-614.957000</v>
+        <v>-614.95699999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>40999.737268</v>
+        <v>40999.737267999997</v>
       </c>
       <c r="BJ3" s="1">
         <v>11.388816</v>
       </c>
       <c r="BK3" s="1">
-        <v>1694.210000</v>
+        <v>1694.21</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1063.350000</v>
+        <v>-1063.3499999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>41011.540537</v>
+        <v>41011.540537000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>11.392095</v>
+        <v>11.392094999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1987.170000</v>
+        <v>1987.17</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1841.540000</v>
+        <v>-1841.54</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>41022.345917</v>
+        <v>41022.345916999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>11.395096</v>
+        <v>11.395096000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2375.110000</v>
+        <v>2375.11</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2739.960000</v>
+        <v>-2739.96</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>41033.048093</v>
+        <v>41033.048092999998</v>
       </c>
       <c r="BY3" s="1">
         <v>11.398069</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2856.300000</v>
+        <v>2856.3</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3727.630000</v>
+        <v>-3727.63</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>41045.305725</v>
+        <v>41045.305724999998</v>
       </c>
       <c r="CD3" s="1">
         <v>11.401474</v>
       </c>
       <c r="CE3" s="1">
-        <v>4277.130000</v>
+        <v>4277.13</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6124.350000</v>
+        <v>-6124.35</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>40874.047570</v>
+        <v>40874.047570000002</v>
       </c>
       <c r="B4" s="1">
         <v>11.353902</v>
       </c>
       <c r="C4" s="1">
-        <v>1258.830000</v>
+        <v>1258.83</v>
       </c>
       <c r="D4" s="1">
-        <v>-280.327000</v>
+        <v>-280.327</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>40884.440705</v>
+        <v>40884.440705000001</v>
       </c>
       <c r="G4" s="1">
-        <v>11.356789</v>
+        <v>11.356788999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1279.700000</v>
+        <v>1279.7</v>
       </c>
       <c r="I4" s="1">
-        <v>-244.759000</v>
+        <v>-244.75899999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>40895.218771</v>
@@ -1025,148 +1441,148 @@
         <v>11.359783</v>
       </c>
       <c r="M4" s="1">
-        <v>1312.000000</v>
+        <v>1312</v>
       </c>
       <c r="N4" s="1">
-        <v>-191.908000</v>
+        <v>-191.90799999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>40905.468101</v>
+        <v>40905.468100999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>11.362630</v>
+        <v>11.362629999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1323.310000</v>
+        <v>1323.31</v>
       </c>
       <c r="S4" s="1">
-        <v>-176.727000</v>
+        <v>-176.727</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>40916.012055</v>
+        <v>40916.012054999999</v>
       </c>
       <c r="V4" s="1">
-        <v>11.365559</v>
+        <v>11.365558999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1336.850000</v>
+        <v>1336.85</v>
       </c>
       <c r="X4" s="1">
-        <v>-166.285000</v>
+        <v>-166.285</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>40926.501450</v>
+        <v>40926.501450000003</v>
       </c>
       <c r="AA4" s="1">
         <v>11.368473</v>
       </c>
       <c r="AB4" s="1">
-        <v>1354.910000</v>
+        <v>1354.91</v>
       </c>
       <c r="AC4" s="1">
-        <v>-166.851000</v>
+        <v>-166.851</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>40937.060780</v>
+        <v>40937.06078</v>
       </c>
       <c r="AF4" s="1">
         <v>11.371406</v>
       </c>
       <c r="AG4" s="1">
-        <v>1368.690000</v>
+        <v>1368.69</v>
       </c>
       <c r="AH4" s="1">
-        <v>-177.642000</v>
+        <v>-177.642</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>40947.540752</v>
+        <v>40947.540752000001</v>
       </c>
       <c r="AK4" s="1">
         <v>11.374317</v>
       </c>
       <c r="AL4" s="1">
-        <v>1389.880000</v>
+        <v>1389.88</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.386000</v>
+        <v>-208.386</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>40957.852576</v>
+        <v>40957.852575999997</v>
       </c>
       <c r="AP4" s="1">
         <v>11.377181</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1411.920000</v>
+        <v>1411.92</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.870000</v>
+        <v>-252.87</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>40968.122738</v>
+        <v>40968.122737999998</v>
       </c>
       <c r="AU4" s="1">
         <v>11.380034</v>
       </c>
       <c r="AV4" s="1">
-        <v>1436.540000</v>
+        <v>1436.54</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.037000</v>
+        <v>-313.03699999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>40978.894356</v>
+        <v>40978.894355999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>11.383026</v>
+        <v>11.383025999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1455.820000</v>
+        <v>1455.82</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.319000</v>
+        <v>-365.31900000000002</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>40989.402636</v>
+        <v>40989.402635999999</v>
       </c>
       <c r="BE4" s="1">
         <v>11.385945</v>
       </c>
       <c r="BF4" s="1">
-        <v>1540.590000</v>
+        <v>1540.59</v>
       </c>
       <c r="BG4" s="1">
-        <v>-614.949000</v>
+        <v>-614.94899999999996</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>41000.098329</v>
@@ -1175,105 +1591,105 @@
         <v>11.388916</v>
       </c>
       <c r="BK4" s="1">
-        <v>1694.100000</v>
+        <v>1694.1</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1063.210000</v>
+        <v>-1063.21</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>41011.951224</v>
+        <v>41011.951223999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>11.392209</v>
+        <v>11.392208999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1987.170000</v>
+        <v>1987.17</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1841.480000</v>
+        <v>-1841.48</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>41022.757067</v>
+        <v>41022.757066999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>11.395210</v>
+        <v>11.395210000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2375.320000</v>
+        <v>2375.3200000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2740.480000</v>
+        <v>-2740.48</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>41033.477596</v>
+        <v>41033.477595999997</v>
       </c>
       <c r="BY4" s="1">
-        <v>11.398188</v>
+        <v>11.398187999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2855.710000</v>
+        <v>2855.71</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3727.130000</v>
+        <v>-3727.13</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>41045.826493</v>
       </c>
       <c r="CD4" s="1">
-        <v>11.401618</v>
+        <v>11.401617999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4288.880000</v>
+        <v>4288.88</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6110.260000</v>
+        <v>-6110.26</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>40874.700767</v>
+        <v>40874.700767000002</v>
       </c>
       <c r="B5" s="1">
         <v>11.354084</v>
       </c>
       <c r="C5" s="1">
-        <v>1258.590000</v>
+        <v>1258.5899999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-280.469000</v>
+        <v>-280.46899999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>40885.097937</v>
+        <v>40885.097936999999</v>
       </c>
       <c r="G5" s="1">
-        <v>11.356972</v>
+        <v>11.356972000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1279.300000</v>
+        <v>1279.3</v>
       </c>
       <c r="I5" s="1">
-        <v>-244.283000</v>
+        <v>-244.28299999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>40895.598242</v>
@@ -1282,226 +1698,226 @@
         <v>11.359888</v>
       </c>
       <c r="M5" s="1">
-        <v>1311.520000</v>
+        <v>1311.52</v>
       </c>
       <c r="N5" s="1">
-        <v>-191.686000</v>
+        <v>-191.68600000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>40905.815302</v>
+        <v>40905.815302000003</v>
       </c>
       <c r="Q5" s="1">
         <v>11.362726</v>
       </c>
       <c r="R5" s="1">
-        <v>1323.310000</v>
+        <v>1323.31</v>
       </c>
       <c r="S5" s="1">
-        <v>-176.685000</v>
+        <v>-176.685</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>40916.351841</v>
+        <v>40916.351841000003</v>
       </c>
       <c r="V5" s="1">
         <v>11.365653</v>
       </c>
       <c r="W5" s="1">
-        <v>1336.750000</v>
+        <v>1336.75</v>
       </c>
       <c r="X5" s="1">
-        <v>-166.307000</v>
+        <v>-166.30699999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>40926.851639</v>
       </c>
       <c r="AA5" s="1">
-        <v>11.368570</v>
+        <v>11.36857</v>
       </c>
       <c r="AB5" s="1">
-        <v>1354.970000</v>
+        <v>1354.97</v>
       </c>
       <c r="AC5" s="1">
-        <v>-166.760000</v>
+        <v>-166.76</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>40937.405996</v>
+        <v>40937.405996000001</v>
       </c>
       <c r="AF5" s="1">
         <v>11.371502</v>
       </c>
       <c r="AG5" s="1">
-        <v>1368.620000</v>
+        <v>1368.62</v>
       </c>
       <c r="AH5" s="1">
-        <v>-177.646000</v>
+        <v>-177.64599999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>40947.959869</v>
+        <v>40947.959868999998</v>
       </c>
       <c r="AK5" s="1">
         <v>11.374433</v>
       </c>
       <c r="AL5" s="1">
-        <v>1389.880000</v>
+        <v>1389.88</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.414000</v>
+        <v>-208.41399999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>40958.253839</v>
+        <v>40958.253838999997</v>
       </c>
       <c r="AP5" s="1">
         <v>11.377293</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1411.980000</v>
+        <v>1411.98</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.778000</v>
+        <v>-252.77799999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>40968.431747</v>
+        <v>40968.431747000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>11.380120</v>
+        <v>11.38012</v>
       </c>
       <c r="AV5" s="1">
-        <v>1436.550000</v>
+        <v>1436.55</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.022000</v>
+        <v>-313.02199999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>40979.186005</v>
+        <v>40979.186005000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>11.383107</v>
+        <v>11.383107000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1455.820000</v>
+        <v>1455.82</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.338000</v>
+        <v>-365.33800000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>40989.763686</v>
+        <v>40989.763685999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>11.386045</v>
+        <v>11.386044999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1540.640000</v>
+        <v>1540.64</v>
       </c>
       <c r="BG5" s="1">
-        <v>-614.921000</v>
+        <v>-614.92100000000005</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>41000.894904</v>
+        <v>41000.894904000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>11.389137</v>
       </c>
       <c r="BK5" s="1">
-        <v>1694.110000</v>
+        <v>1694.11</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1063.280000</v>
+        <v>-1063.28</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>41012.348024</v>
+        <v>41012.348023999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>11.392319</v>
+        <v>11.392319000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1987.110000</v>
+        <v>1987.11</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1841.650000</v>
+        <v>-1841.65</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>41023.193546</v>
+        <v>41023.193546000002</v>
       </c>
       <c r="BT5" s="1">
         <v>11.395332</v>
       </c>
       <c r="BU5" s="1">
-        <v>2375.450000</v>
+        <v>2375.4499999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2740.880000</v>
+        <v>-2740.88</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>41033.899693</v>
+        <v>41033.899692999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>11.398305</v>
+        <v>11.398305000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2855.300000</v>
+        <v>2855.3</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3728.500000</v>
+        <v>-3728.5</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>41046.345307</v>
+        <v>41046.345307000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>11.401763</v>
+        <v>11.401763000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4289.230000</v>
+        <v>4289.2299999999996</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6115.770000</v>
+        <v>-6115.77</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>40875.068798</v>
       </c>
@@ -1509,375 +1925,375 @@
         <v>11.354186</v>
       </c>
       <c r="C6" s="1">
-        <v>1258.750000</v>
+        <v>1258.75</v>
       </c>
       <c r="D6" s="1">
-        <v>-280.577000</v>
+        <v>-280.577</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>40885.488257</v>
+        <v>40885.488256999997</v>
       </c>
       <c r="G6" s="1">
-        <v>11.357080</v>
+        <v>11.35708</v>
       </c>
       <c r="H6" s="1">
-        <v>1279.950000</v>
+        <v>1279.95</v>
       </c>
       <c r="I6" s="1">
-        <v>-244.312000</v>
+        <v>-244.31200000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>40895.945906</v>
+        <v>40895.945906000001</v>
       </c>
       <c r="L6" s="1">
         <v>11.359985</v>
       </c>
       <c r="M6" s="1">
-        <v>1311.790000</v>
+        <v>1311.79</v>
       </c>
       <c r="N6" s="1">
-        <v>-191.310000</v>
+        <v>-191.31</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>40906.163524</v>
+        <v>40906.163524000003</v>
       </c>
       <c r="Q6" s="1">
-        <v>11.362823</v>
+        <v>11.362823000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1323.410000</v>
+        <v>1323.41</v>
       </c>
       <c r="S6" s="1">
-        <v>-176.707000</v>
+        <v>-176.70699999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>40916.696566</v>
+        <v>40916.696565999999</v>
       </c>
       <c r="V6" s="1">
-        <v>11.365749</v>
+        <v>11.365748999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1336.880000</v>
+        <v>1336.88</v>
       </c>
       <c r="X6" s="1">
-        <v>-166.295000</v>
+        <v>-166.29499999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>40927.268266</v>
+        <v>40927.268265999999</v>
       </c>
       <c r="AA6" s="1">
         <v>11.368686</v>
       </c>
       <c r="AB6" s="1">
-        <v>1355.130000</v>
+        <v>1355.13</v>
       </c>
       <c r="AC6" s="1">
-        <v>-166.747000</v>
+        <v>-166.74700000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>40937.813707</v>
+        <v>40937.813707000001</v>
       </c>
       <c r="AF6" s="1">
         <v>11.371615</v>
       </c>
       <c r="AG6" s="1">
-        <v>1368.600000</v>
+        <v>1368.6</v>
       </c>
       <c r="AH6" s="1">
-        <v>-177.623000</v>
+        <v>-177.62299999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>40948.250202</v>
+        <v>40948.250202000003</v>
       </c>
       <c r="AK6" s="1">
         <v>11.374514</v>
       </c>
       <c r="AL6" s="1">
-        <v>1389.890000</v>
+        <v>1389.89</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.371000</v>
+        <v>-208.37100000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>40958.570783</v>
+        <v>40958.570783000003</v>
       </c>
       <c r="AP6" s="1">
         <v>11.377381</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1411.890000</v>
+        <v>1411.89</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.798000</v>
+        <v>-252.798</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>40968.797330</v>
+        <v>40968.797330000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>11.380221</v>
+        <v>11.380221000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1436.540000</v>
+        <v>1436.54</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.044000</v>
+        <v>-313.04399999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>40979.544115</v>
+        <v>40979.544114999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>11.383207</v>
+        <v>11.383207000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1455.830000</v>
+        <v>1455.83</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.343000</v>
+        <v>-365.34300000000002</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>40990.124774</v>
+        <v>40990.124774000004</v>
       </c>
       <c r="BE6" s="1">
         <v>11.386146</v>
       </c>
       <c r="BF6" s="1">
-        <v>1540.590000</v>
+        <v>1540.59</v>
       </c>
       <c r="BG6" s="1">
-        <v>-614.960000</v>
+        <v>-614.96</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>41002.099227</v>
+        <v>41002.099226999999</v>
       </c>
       <c r="BJ6" s="1">
         <v>11.389472</v>
       </c>
       <c r="BK6" s="1">
-        <v>1694.070000</v>
+        <v>1694.07</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1063.220000</v>
+        <v>-1063.22</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>41012.768168</v>
+        <v>41012.768168000002</v>
       </c>
       <c r="BO6" s="1">
         <v>11.392436</v>
       </c>
       <c r="BP6" s="1">
-        <v>1987.220000</v>
+        <v>1987.22</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1841.620000</v>
+        <v>-1841.62</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>41023.616665</v>
+        <v>41023.616665000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>11.395449</v>
+        <v>11.395448999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2375.750000</v>
+        <v>2375.75</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2741.080000</v>
+        <v>-2741.08</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>41034.320827</v>
+        <v>41034.320827000003</v>
       </c>
       <c r="BY6" s="1">
         <v>11.398422</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2855.890000</v>
+        <v>2855.89</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3727.930000</v>
+        <v>-3727.93</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>41046.896860</v>
+        <v>41046.896860000001</v>
       </c>
       <c r="CD6" s="1">
         <v>11.401916</v>
       </c>
       <c r="CE6" s="1">
-        <v>4276.830000</v>
+        <v>4276.83</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6123.890000</v>
+        <v>-6123.89</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>40875.412530</v>
+        <v>40875.412530000001</v>
       </c>
       <c r="B7" s="1">
         <v>11.354281</v>
       </c>
       <c r="C7" s="1">
-        <v>1258.630000</v>
+        <v>1258.6300000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-280.330000</v>
+        <v>-280.33</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>40885.829999</v>
+        <v>40885.829999000001</v>
       </c>
       <c r="G7" s="1">
         <v>11.357175</v>
       </c>
       <c r="H7" s="1">
-        <v>1280.180000</v>
+        <v>1280.18</v>
       </c>
       <c r="I7" s="1">
-        <v>-244.176000</v>
+        <v>-244.17599999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>40896.289633</v>
       </c>
       <c r="L7" s="1">
-        <v>11.360080</v>
+        <v>11.36008</v>
       </c>
       <c r="M7" s="1">
-        <v>1311.950000</v>
+        <v>1311.95</v>
       </c>
       <c r="N7" s="1">
-        <v>-191.490000</v>
+        <v>-191.49</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>40906.583633</v>
+        <v>40906.583633000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>11.362940</v>
+        <v>11.36294</v>
       </c>
       <c r="R7" s="1">
-        <v>1323.390000</v>
+        <v>1323.39</v>
       </c>
       <c r="S7" s="1">
-        <v>-176.731000</v>
+        <v>-176.73099999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>40917.108710</v>
+        <v>40917.10871</v>
       </c>
       <c r="V7" s="1">
         <v>11.365864</v>
       </c>
       <c r="W7" s="1">
-        <v>1336.850000</v>
+        <v>1336.85</v>
       </c>
       <c r="X7" s="1">
-        <v>-166.240000</v>
+        <v>-166.24</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>40927.558425</v>
+        <v>40927.558425000003</v>
       </c>
       <c r="AA7" s="1">
-        <v>11.368766</v>
+        <v>11.368766000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1355.140000</v>
+        <v>1355.14</v>
       </c>
       <c r="AC7" s="1">
-        <v>-166.791000</v>
+        <v>-166.791</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>40938.099899</v>
+        <v>40938.099899000001</v>
       </c>
       <c r="AF7" s="1">
         <v>11.371694</v>
       </c>
       <c r="AG7" s="1">
-        <v>1368.620000</v>
+        <v>1368.62</v>
       </c>
       <c r="AH7" s="1">
-        <v>-177.587000</v>
+        <v>-177.58699999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>40948.597724</v>
+        <v>40948.597723999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>11.374610</v>
+        <v>11.374610000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1389.870000</v>
+        <v>1389.87</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.394000</v>
+        <v>-208.39400000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>40958.931376</v>
@@ -1886,150 +2302,150 @@
         <v>11.377481</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1411.950000</v>
+        <v>1411.95</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.810000</v>
+        <v>-252.81</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>40969.159873</v>
+        <v>40969.159872999997</v>
       </c>
       <c r="AU7" s="1">
         <v>11.380322</v>
       </c>
       <c r="AV7" s="1">
-        <v>1436.560000</v>
+        <v>1436.56</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.009000</v>
+        <v>-313.00900000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>40979.904708</v>
+        <v>40979.904708000002</v>
       </c>
       <c r="AZ7" s="1">
         <v>11.383307</v>
       </c>
       <c r="BA7" s="1">
-        <v>1455.800000</v>
+        <v>1455.8</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.320000</v>
+        <v>-365.32</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>40990.845970</v>
+        <v>40990.845970000002</v>
       </c>
       <c r="BE7" s="1">
         <v>11.386346</v>
       </c>
       <c r="BF7" s="1">
-        <v>1540.640000</v>
+        <v>1540.64</v>
       </c>
       <c r="BG7" s="1">
-        <v>-614.959000</v>
+        <v>-614.95899999999995</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>41002.353174</v>
+        <v>41002.353174000003</v>
       </c>
       <c r="BJ7" s="1">
         <v>11.389543</v>
       </c>
       <c r="BK7" s="1">
-        <v>1694.060000</v>
+        <v>1694.06</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1063.270000</v>
+        <v>-1063.27</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>41013.162951</v>
+        <v>41013.162950999998</v>
       </c>
       <c r="BO7" s="1">
         <v>11.392545</v>
       </c>
       <c r="BP7" s="1">
-        <v>1987.070000</v>
+        <v>1987.07</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1841.410000</v>
+        <v>-1841.41</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>41024.033305</v>
+        <v>41024.033304999997</v>
       </c>
       <c r="BT7" s="1">
         <v>11.395565</v>
       </c>
       <c r="BU7" s="1">
-        <v>2375.450000</v>
+        <v>2375.4499999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2741.590000</v>
+        <v>-2741.59</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>41034.750332</v>
+        <v>41034.750332000003</v>
       </c>
       <c r="BY7" s="1">
-        <v>11.398542</v>
+        <v>11.398542000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2855.610000</v>
+        <v>2855.61</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3727.710000</v>
+        <v>-3727.71</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>41047.727694</v>
+        <v>41047.727694000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>11.402147</v>
+        <v>11.402146999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4286.430000</v>
+        <v>4286.43</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6109.390000</v>
+        <v>-6109.39</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>40875.756556</v>
       </c>
       <c r="B8" s="1">
-        <v>11.354377</v>
+        <v>11.354376999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1258.950000</v>
+        <v>1258.95</v>
       </c>
       <c r="D8" s="1">
-        <v>-280.722000</v>
+        <v>-280.72199999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>40886.274416</v>
@@ -2038,148 +2454,148 @@
         <v>11.357298</v>
       </c>
       <c r="H8" s="1">
-        <v>1279.460000</v>
+        <v>1279.46</v>
       </c>
       <c r="I8" s="1">
-        <v>-244.202000</v>
+        <v>-244.202</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>40896.707761</v>
+        <v>40896.707760999998</v>
       </c>
       <c r="L8" s="1">
-        <v>11.360197</v>
+        <v>11.360196999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1311.880000</v>
+        <v>1311.88</v>
       </c>
       <c r="N8" s="1">
-        <v>-191.418000</v>
+        <v>-191.41800000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>40906.875289</v>
+        <v>40906.875289000003</v>
       </c>
       <c r="Q8" s="1">
         <v>11.363021</v>
       </c>
       <c r="R8" s="1">
-        <v>1323.380000</v>
+        <v>1323.38</v>
       </c>
       <c r="S8" s="1">
-        <v>-176.790000</v>
+        <v>-176.79</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>40917.407334</v>
+        <v>40917.407334000003</v>
       </c>
       <c r="V8" s="1">
-        <v>11.365946</v>
+        <v>11.365945999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1336.840000</v>
+        <v>1336.84</v>
       </c>
       <c r="X8" s="1">
-        <v>-166.315000</v>
+        <v>-166.315</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>40927.908631</v>
+        <v>40927.908630999998</v>
       </c>
       <c r="AA8" s="1">
         <v>11.368864</v>
       </c>
       <c r="AB8" s="1">
-        <v>1354.960000</v>
+        <v>1354.96</v>
       </c>
       <c r="AC8" s="1">
-        <v>-166.683000</v>
+        <v>-166.68299999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>40938.447099</v>
+        <v>40938.447098999997</v>
       </c>
       <c r="AF8" s="1">
         <v>11.371791</v>
       </c>
       <c r="AG8" s="1">
-        <v>1368.670000</v>
+        <v>1368.67</v>
       </c>
       <c r="AH8" s="1">
-        <v>-177.674000</v>
+        <v>-177.67400000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>40948.944429</v>
+        <v>40948.944429000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>11.374707</v>
+        <v>11.374707000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1389.860000</v>
+        <v>1389.86</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.491000</v>
+        <v>-208.49100000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>40959.290974</v>
+        <v>40959.290974000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>11.377581</v>
+        <v>11.377580999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1411.930000</v>
+        <v>1411.93</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.816000</v>
+        <v>-252.816</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>40969.889521</v>
+        <v>40969.889520999997</v>
       </c>
       <c r="AU8" s="1">
         <v>11.380525</v>
       </c>
       <c r="AV8" s="1">
-        <v>1436.520000</v>
+        <v>1436.52</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.034000</v>
+        <v>-313.03399999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>40980.647268</v>
+        <v>40980.647268000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>11.383513</v>
+        <v>11.383513000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1455.800000</v>
+        <v>1455.8</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.358000</v>
+        <v>-365.358</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>40991.236308</v>
@@ -2188,43 +2604,43 @@
         <v>11.386455</v>
       </c>
       <c r="BF8" s="1">
-        <v>1540.620000</v>
+        <v>1540.62</v>
       </c>
       <c r="BG8" s="1">
-        <v>-614.947000</v>
+        <v>-614.947</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>41002.732612</v>
       </c>
       <c r="BJ8" s="1">
-        <v>11.389648</v>
+        <v>11.389647999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1694.050000</v>
+        <v>1694.05</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1063.250000</v>
+        <v>-1063.25</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>41013.585574</v>
+        <v>41013.585573999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>11.392663</v>
+        <v>11.392663000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1987.130000</v>
+        <v>1987.13</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1841.660000</v>
+        <v>-1841.66</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>41024.773836</v>
@@ -2233,90 +2649,90 @@
         <v>11.395771</v>
       </c>
       <c r="BU8" s="1">
-        <v>2375.460000</v>
+        <v>2375.46</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2741.790000</v>
+        <v>-2741.79</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>41035.475664</v>
+        <v>41035.475663999998</v>
       </c>
       <c r="BY8" s="1">
         <v>11.398743</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2854.910000</v>
+        <v>2854.91</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3727.360000</v>
+        <v>-3727.36</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>41047.978665</v>
+        <v>41047.978665000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>11.402216</v>
+        <v>11.402215999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>4268.850000</v>
+        <v>4268.8500000000004</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6103.660000</v>
+        <v>-6103.66</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>40876.189946</v>
+        <v>40876.189945999999</v>
       </c>
       <c r="B9" s="1">
         <v>11.354497</v>
       </c>
       <c r="C9" s="1">
-        <v>1259.000000</v>
+        <v>1259</v>
       </c>
       <c r="D9" s="1">
-        <v>-280.448000</v>
+        <v>-280.44799999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>40886.528368</v>
+        <v>40886.528367999999</v>
       </c>
       <c r="G9" s="1">
         <v>11.357369</v>
       </c>
       <c r="H9" s="1">
-        <v>1279.620000</v>
+        <v>1279.6199999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-244.691000</v>
+        <v>-244.691</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>40896.983040</v>
+        <v>40896.983039999999</v>
       </c>
       <c r="L9" s="1">
-        <v>11.360273</v>
+        <v>11.360272999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1311.620000</v>
+        <v>1311.62</v>
       </c>
       <c r="N9" s="1">
-        <v>-191.891000</v>
+        <v>-191.89099999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>40907.223477</v>
@@ -2325,315 +2741,315 @@
         <v>11.363118</v>
       </c>
       <c r="R9" s="1">
-        <v>1323.310000</v>
+        <v>1323.31</v>
       </c>
       <c r="S9" s="1">
-        <v>-176.774000</v>
+        <v>-176.774</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>40917.753509</v>
+        <v>40917.753509000002</v>
       </c>
       <c r="V9" s="1">
-        <v>11.366043</v>
+        <v>11.366042999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1336.810000</v>
+        <v>1336.81</v>
       </c>
       <c r="X9" s="1">
-        <v>-166.266000</v>
+        <v>-166.26599999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>40928.257287</v>
       </c>
       <c r="AA9" s="1">
-        <v>11.368960</v>
+        <v>11.36896</v>
       </c>
       <c r="AB9" s="1">
-        <v>1355.190000</v>
+        <v>1355.19</v>
       </c>
       <c r="AC9" s="1">
-        <v>-166.871000</v>
+        <v>-166.87100000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>40938.789337</v>
+        <v>40938.789337000002</v>
       </c>
       <c r="AF9" s="1">
         <v>11.371886</v>
       </c>
       <c r="AG9" s="1">
-        <v>1368.660000</v>
+        <v>1368.66</v>
       </c>
       <c r="AH9" s="1">
-        <v>-177.575000</v>
+        <v>-177.57499999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>40949.643292</v>
+        <v>40949.643292000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>11.374901</v>
+        <v>11.374900999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1389.880000</v>
+        <v>1389.88</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.457000</v>
+        <v>-208.45699999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>40960.015137</v>
+        <v>40960.015137000002</v>
       </c>
       <c r="AP9" s="1">
         <v>11.377782</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1411.900000</v>
+        <v>1411.9</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.803000</v>
+        <v>-252.803</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>40970.282320</v>
+        <v>40970.282319999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>11.380634</v>
+        <v>11.380634000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1436.580000</v>
+        <v>1436.58</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.029000</v>
+        <v>-313.029</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>40981.006358</v>
+        <v>40981.006357999999</v>
       </c>
       <c r="AZ9" s="1">
         <v>11.383613</v>
       </c>
       <c r="BA9" s="1">
-        <v>1455.800000</v>
+        <v>1455.8</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.295000</v>
+        <v>-365.29500000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>40991.617235</v>
+        <v>40991.617234999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>11.386560</v>
+        <v>11.386559999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1540.570000</v>
+        <v>1540.57</v>
       </c>
       <c r="BG9" s="1">
-        <v>-614.899000</v>
+        <v>-614.899</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>41003.420532</v>
+        <v>41003.420531999996</v>
       </c>
       <c r="BJ9" s="1">
         <v>11.389839</v>
       </c>
       <c r="BK9" s="1">
-        <v>1694.070000</v>
+        <v>1694.07</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1063.210000</v>
+        <v>-1063.21</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>41014.287413</v>
+        <v>41014.287412999998</v>
       </c>
       <c r="BO9" s="1">
         <v>11.392858</v>
       </c>
       <c r="BP9" s="1">
-        <v>1987.140000</v>
+        <v>1987.14</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1841.460000</v>
+        <v>-1841.46</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>41024.889368</v>
+        <v>41024.889367999996</v>
       </c>
       <c r="BT9" s="1">
-        <v>11.395803</v>
+        <v>11.395803000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>2375.600000</v>
+        <v>2375.6</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2742.300000</v>
+        <v>-2742.3</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>41035.611883</v>
+        <v>41035.611882999998</v>
       </c>
       <c r="BY9" s="1">
         <v>11.398781</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2855.050000</v>
+        <v>2855.05</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3727.910000</v>
+        <v>-3727.91</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>41048.512362</v>
+        <v>41048.512362000001</v>
       </c>
       <c r="CD9" s="1">
         <v>11.402365</v>
       </c>
       <c r="CE9" s="1">
-        <v>4273.660000</v>
+        <v>4273.66</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6121.550000</v>
+        <v>-6121.55</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>40876.461069</v>
+        <v>40876.461068999997</v>
       </c>
       <c r="B10" s="1">
         <v>11.354573</v>
       </c>
       <c r="C10" s="1">
-        <v>1259.160000</v>
+        <v>1259.1600000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-281.187000</v>
+        <v>-281.18700000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>40886.874111</v>
+        <v>40886.874110999997</v>
       </c>
       <c r="G10" s="1">
-        <v>11.357465</v>
+        <v>11.357464999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1280.430000</v>
+        <v>1280.43</v>
       </c>
       <c r="I10" s="1">
-        <v>-243.696000</v>
+        <v>-243.696</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>40897.329745</v>
+        <v>40897.329745000003</v>
       </c>
       <c r="L10" s="1">
         <v>11.360369</v>
       </c>
       <c r="M10" s="1">
-        <v>1311.870000</v>
+        <v>1311.87</v>
       </c>
       <c r="N10" s="1">
-        <v>-191.363000</v>
+        <v>-191.363</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>40907.569155</v>
+        <v>40907.569154999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>11.363214</v>
+        <v>11.363213999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1323.250000</v>
+        <v>1323.25</v>
       </c>
       <c r="S10" s="1">
-        <v>-176.705000</v>
+        <v>-176.70500000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>40918.096279</v>
+        <v>40918.096278999998</v>
       </c>
       <c r="V10" s="1">
-        <v>11.366138</v>
+        <v>11.366137999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1336.810000</v>
+        <v>1336.81</v>
       </c>
       <c r="X10" s="1">
-        <v>-166.182000</v>
+        <v>-166.18199999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>40928.952678</v>
+        <v>40928.952678000001</v>
       </c>
       <c r="AA10" s="1">
         <v>11.369154</v>
       </c>
       <c r="AB10" s="1">
-        <v>1355.080000</v>
+        <v>1355.08</v>
       </c>
       <c r="AC10" s="1">
-        <v>-166.835000</v>
+        <v>-166.83500000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>40939.476296</v>
+        <v>40939.476296000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>11.372077</v>
+        <v>11.372077000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1368.640000</v>
+        <v>1368.64</v>
       </c>
       <c r="AH10" s="1">
-        <v>-177.578000</v>
+        <v>-177.578</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>40949.993467</v>
@@ -2642,330 +3058,330 @@
         <v>11.374998</v>
       </c>
       <c r="AL10" s="1">
-        <v>1389.840000</v>
+        <v>1389.84</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.415000</v>
+        <v>-208.41499999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>40960.372290</v>
+        <v>40960.372289999999</v>
       </c>
       <c r="AP10" s="1">
         <v>11.377881</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1411.910000</v>
+        <v>1411.91</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.830000</v>
+        <v>-252.83</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>40970.645887</v>
+        <v>40970.645886999999</v>
       </c>
       <c r="AU10" s="1">
         <v>11.380735</v>
       </c>
       <c r="AV10" s="1">
-        <v>1436.540000</v>
+        <v>1436.54</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.036000</v>
+        <v>-313.036</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>40981.690801</v>
+        <v>40981.690800999997</v>
       </c>
       <c r="AZ10" s="1">
         <v>11.383803</v>
       </c>
       <c r="BA10" s="1">
-        <v>1455.780000</v>
+        <v>1455.78</v>
       </c>
       <c r="BB10" s="1">
-        <v>-365.325000</v>
+        <v>-365.32499999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>40992.283362</v>
+        <v>40992.283362000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>11.386745</v>
+        <v>11.386744999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1540.580000</v>
+        <v>1540.58</v>
       </c>
       <c r="BG10" s="1">
-        <v>-614.890000</v>
+        <v>-614.89</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>41003.858499</v>
+        <v>41003.858499000002</v>
       </c>
       <c r="BJ10" s="1">
         <v>11.389961</v>
       </c>
       <c r="BK10" s="1">
-        <v>1693.990000</v>
+        <v>1693.99</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1063.220000</v>
+        <v>-1063.22</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>41014.404934</v>
+        <v>41014.404933999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>11.392890</v>
+        <v>11.39289</v>
       </c>
       <c r="BP10" s="1">
-        <v>1987.050000</v>
+        <v>1987.05</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1841.400000</v>
+        <v>-1841.4</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>41025.329319</v>
+        <v>41025.329318999997</v>
       </c>
       <c r="BT10" s="1">
         <v>11.395925</v>
       </c>
       <c r="BU10" s="1">
-        <v>2375.770000</v>
+        <v>2375.77</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2742.630000</v>
+        <v>-2742.63</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>41036.036458</v>
+        <v>41036.036458000002</v>
       </c>
       <c r="BY10" s="1">
         <v>11.398899</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2855.770000</v>
+        <v>2855.77</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3727.290000</v>
+        <v>-3727.29</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>41049.049993</v>
+        <v>41049.049993000001</v>
       </c>
       <c r="CD10" s="1">
         <v>11.402514</v>
       </c>
       <c r="CE10" s="1">
-        <v>4286.260000</v>
+        <v>4286.26</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6106.540000</v>
+        <v>-6106.54</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>40876.801856</v>
+        <v>40876.801855999998</v>
       </c>
       <c r="B11" s="1">
-        <v>11.354667</v>
+        <v>11.354666999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1258.740000</v>
+        <v>1258.74</v>
       </c>
       <c r="D11" s="1">
-        <v>-280.796000</v>
+        <v>-280.79599999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>40887.218303</v>
+        <v>40887.218303000001</v>
       </c>
       <c r="G11" s="1">
         <v>11.357561</v>
       </c>
       <c r="H11" s="1">
-        <v>1280.630000</v>
+        <v>1280.6300000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-244.078000</v>
+        <v>-244.078</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>40897.675953</v>
+        <v>40897.675952999998</v>
       </c>
       <c r="L11" s="1">
-        <v>11.360466</v>
+        <v>11.360466000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1311.670000</v>
+        <v>1311.67</v>
       </c>
       <c r="N11" s="1">
-        <v>-192.141000</v>
+        <v>-192.14099999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>40908.268049</v>
+        <v>40908.268048999998</v>
       </c>
       <c r="Q11" s="1">
         <v>11.363408</v>
       </c>
       <c r="R11" s="1">
-        <v>1323.300000</v>
+        <v>1323.3</v>
       </c>
       <c r="S11" s="1">
-        <v>-176.675000</v>
+        <v>-176.67500000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>40918.780755</v>
       </c>
       <c r="V11" s="1">
-        <v>11.366328</v>
+        <v>11.366327999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1336.900000</v>
+        <v>1336.9</v>
       </c>
       <c r="X11" s="1">
-        <v>-166.338000</v>
+        <v>-166.33799999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>40929.302041</v>
+        <v>40929.302041000003</v>
       </c>
       <c r="AA11" s="1">
         <v>11.369251</v>
       </c>
       <c r="AB11" s="1">
-        <v>1355.010000</v>
+        <v>1355.01</v>
       </c>
       <c r="AC11" s="1">
-        <v>-166.874000</v>
+        <v>-166.874</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>40939.817690</v>
+        <v>40939.817690000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>11.372172</v>
+        <v>11.372172000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1368.620000</v>
+        <v>1368.62</v>
       </c>
       <c r="AH11" s="1">
-        <v>-177.600000</v>
+        <v>-177.6</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>40950.341659</v>
+        <v>40950.341658999998</v>
       </c>
       <c r="AK11" s="1">
         <v>11.375095</v>
       </c>
       <c r="AL11" s="1">
-        <v>1389.850000</v>
+        <v>1389.85</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.420000</v>
+        <v>-208.42</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>40960.734828</v>
+        <v>40960.734828000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>11.377982</v>
+        <v>11.377981999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1411.820000</v>
+        <v>1411.82</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.722000</v>
+        <v>-252.72200000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>40971.316510</v>
+        <v>40971.316509999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>11.380921</v>
+        <v>11.380921000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1436.540000</v>
+        <v>1436.54</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.000000</v>
+        <v>-313</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>40982.101984</v>
+        <v>40982.101984000001</v>
       </c>
       <c r="AZ11" s="1">
         <v>11.383917</v>
       </c>
       <c r="BA11" s="1">
-        <v>1455.810000</v>
+        <v>1455.81</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.276000</v>
+        <v>-365.27600000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>40992.700002</v>
+        <v>40992.700001999998</v>
       </c>
       <c r="BE11" s="1">
         <v>11.386861</v>
       </c>
       <c r="BF11" s="1">
-        <v>1540.600000</v>
+        <v>1540.6</v>
       </c>
       <c r="BG11" s="1">
-        <v>-614.912000</v>
+        <v>-614.91200000000003</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>41004.232483</v>
@@ -2974,13 +3390,13 @@
         <v>11.390065</v>
       </c>
       <c r="BK11" s="1">
-        <v>1694.020000</v>
+        <v>1694.02</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1063.250000</v>
+        <v>-1063.25</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>41014.828556</v>
@@ -2989,120 +3405,120 @@
         <v>11.393008</v>
       </c>
       <c r="BP11" s="1">
-        <v>1987.040000</v>
+        <v>1987.04</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1841.620000</v>
+        <v>-1841.62</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>41025.741034</v>
+        <v>41025.741033999999</v>
       </c>
       <c r="BT11" s="1">
         <v>11.396039</v>
       </c>
       <c r="BU11" s="1">
-        <v>2375.140000</v>
+        <v>2375.14</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2743.050000</v>
+        <v>-2743.05</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>41036.460074</v>
+        <v>41036.460074000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>11.399017</v>
+        <v>11.399017000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2856.020000</v>
+        <v>2856.02</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3727.950000</v>
+        <v>-3727.95</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>41049.592151</v>
+        <v>41049.592150999997</v>
       </c>
       <c r="CD11" s="1">
         <v>11.402664</v>
       </c>
       <c r="CE11" s="1">
-        <v>4263.210000</v>
+        <v>4263.21</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6113.490000</v>
+        <v>-6113.49</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>40877.144091</v>
+        <v>40877.144091000002</v>
       </c>
       <c r="B12" s="1">
-        <v>11.354762</v>
+        <v>11.354761999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1258.590000</v>
+        <v>1258.5899999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-280.511000</v>
+        <v>-280.51100000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>40887.907245</v>
+        <v>40887.907245000002</v>
       </c>
       <c r="G12" s="1">
         <v>11.357752</v>
       </c>
       <c r="H12" s="1">
-        <v>1279.910000</v>
+        <v>1279.9100000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-243.909000</v>
+        <v>-243.90899999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>40898.373327</v>
+        <v>40898.373327000001</v>
       </c>
       <c r="L12" s="1">
         <v>11.360659</v>
       </c>
       <c r="M12" s="1">
-        <v>1311.990000</v>
+        <v>1311.99</v>
       </c>
       <c r="N12" s="1">
-        <v>-191.577000</v>
+        <v>-191.577</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>40908.618193</v>
+        <v>40908.618193000002</v>
       </c>
       <c r="Q12" s="1">
         <v>11.363505</v>
       </c>
       <c r="R12" s="1">
-        <v>1323.330000</v>
+        <v>1323.33</v>
       </c>
       <c r="S12" s="1">
-        <v>-176.665000</v>
+        <v>-176.66499999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>40919.127923</v>
@@ -3111,103 +3527,103 @@
         <v>11.366424</v>
       </c>
       <c r="W12" s="1">
-        <v>1336.870000</v>
+        <v>1336.87</v>
       </c>
       <c r="X12" s="1">
-        <v>-166.216000</v>
+        <v>-166.21600000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>40929.648597</v>
+        <v>40929.648596999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>11.369347</v>
+        <v>11.369346999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1354.960000</v>
+        <v>1354.96</v>
       </c>
       <c r="AC12" s="1">
-        <v>-166.851000</v>
+        <v>-166.851</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>40940.163753</v>
+        <v>40940.163753000001</v>
       </c>
       <c r="AF12" s="1">
         <v>11.372268</v>
       </c>
       <c r="AG12" s="1">
-        <v>1368.600000</v>
+        <v>1368.6</v>
       </c>
       <c r="AH12" s="1">
-        <v>-177.604000</v>
+        <v>-177.60400000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>40950.997402</v>
+        <v>40950.997402000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>11.375277</v>
+        <v>11.375277000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1389.820000</v>
+        <v>1389.82</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.470000</v>
+        <v>-208.47</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>40961.236284</v>
+        <v>40961.236283999999</v>
       </c>
       <c r="AP12" s="1">
         <v>11.378121</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1411.850000</v>
+        <v>1411.85</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.700000</v>
+        <v>-252.7</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>40971.772303</v>
+        <v>40971.772302999998</v>
       </c>
       <c r="AU12" s="1">
         <v>11.381048</v>
       </c>
       <c r="AV12" s="1">
-        <v>1436.550000</v>
+        <v>1436.55</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.051000</v>
+        <v>-313.05099999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>40982.460096</v>
+        <v>40982.460096000003</v>
       </c>
       <c r="AZ12" s="1">
         <v>11.384017</v>
       </c>
       <c r="BA12" s="1">
-        <v>1455.770000</v>
+        <v>1455.77</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.333000</v>
+        <v>-365.33300000000003</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>40993.084402</v>
@@ -3216,120 +3632,120 @@
         <v>11.386968</v>
       </c>
       <c r="BF12" s="1">
-        <v>1540.590000</v>
+        <v>1540.59</v>
       </c>
       <c r="BG12" s="1">
-        <v>-614.905000</v>
+        <v>-614.90499999999997</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>41004.611726</v>
+        <v>41004.611726000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>11.390170</v>
+        <v>11.390169999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1694.060000</v>
+        <v>1694.06</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1063.210000</v>
+        <v>-1063.21</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>41015.225348</v>
       </c>
       <c r="BO12" s="1">
-        <v>11.393118</v>
+        <v>11.393117999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1986.890000</v>
+        <v>1986.89</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1841.520000</v>
+        <v>-1841.52</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>41026.172053</v>
+        <v>41026.172053000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>11.396159</v>
+        <v>11.396159000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2375.510000</v>
+        <v>2375.5100000000002</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2743.230000</v>
+        <v>-2743.23</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>41036.905447</v>
+        <v>41036.905446999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>11.399140</v>
+        <v>11.399139999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2855.230000</v>
+        <v>2855.23</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3727.680000</v>
+        <v>-3727.68</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>41050.132760</v>
+        <v>41050.13276</v>
       </c>
       <c r="CD12" s="1">
         <v>11.402815</v>
       </c>
       <c r="CE12" s="1">
-        <v>4285.790000</v>
+        <v>4285.79</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6118.950000</v>
+        <v>-6118.95</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>40877.830026</v>
+        <v>40877.830026000003</v>
       </c>
       <c r="B13" s="1">
         <v>11.354953</v>
       </c>
       <c r="C13" s="1">
-        <v>1259.160000</v>
+        <v>1259.1600000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-280.791000</v>
+        <v>-280.791</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>40888.252492</v>
       </c>
       <c r="G13" s="1">
-        <v>11.357848</v>
+        <v>11.357848000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1280.050000</v>
+        <v>1280.05</v>
       </c>
       <c r="I13" s="1">
-        <v>-244.481000</v>
+        <v>-244.48099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>40898.720062</v>
@@ -3338,43 +3754,43 @@
         <v>11.360756</v>
       </c>
       <c r="M13" s="1">
-        <v>1311.940000</v>
+        <v>1311.94</v>
       </c>
       <c r="N13" s="1">
-        <v>-191.508000</v>
+        <v>-191.50800000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>40908.965923</v>
+        <v>40908.965923000003</v>
       </c>
       <c r="Q13" s="1">
         <v>11.363602</v>
       </c>
       <c r="R13" s="1">
-        <v>1323.360000</v>
+        <v>1323.36</v>
       </c>
       <c r="S13" s="1">
-        <v>-176.731000</v>
+        <v>-176.73099999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>40919.469449</v>
+        <v>40919.469448999997</v>
       </c>
       <c r="V13" s="1">
         <v>11.366519</v>
       </c>
       <c r="W13" s="1">
-        <v>1336.910000</v>
+        <v>1336.91</v>
       </c>
       <c r="X13" s="1">
-        <v>-166.376000</v>
+        <v>-166.376</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>40930.304806</v>
@@ -3383,118 +3799,118 @@
         <v>11.369529</v>
       </c>
       <c r="AB13" s="1">
-        <v>1355.140000</v>
+        <v>1355.14</v>
       </c>
       <c r="AC13" s="1">
-        <v>-166.781000</v>
+        <v>-166.78100000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>40940.804130</v>
+        <v>40940.804129999997</v>
       </c>
       <c r="AF13" s="1">
         <v>11.372446</v>
       </c>
       <c r="AG13" s="1">
-        <v>1368.680000</v>
+        <v>1368.68</v>
       </c>
       <c r="AH13" s="1">
-        <v>-177.630000</v>
+        <v>-177.63</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>40951.383256</v>
+        <v>40951.383256000001</v>
       </c>
       <c r="AK13" s="1">
         <v>11.375384</v>
       </c>
       <c r="AL13" s="1">
-        <v>1389.870000</v>
+        <v>1389.87</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.460000</v>
+        <v>-208.46</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>40961.454059</v>
+        <v>40961.454059000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>11.378182</v>
+        <v>11.378182000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1411.830000</v>
+        <v>1411.83</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.722000</v>
+        <v>-252.72200000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>40972.138881</v>
+        <v>40972.138880999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>11.381150</v>
+        <v>11.38115</v>
       </c>
       <c r="AV13" s="1">
-        <v>1436.540000</v>
+        <v>1436.54</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.009000</v>
+        <v>-313.00900000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>40982.818703</v>
+        <v>40982.818702999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>11.384116</v>
+        <v>11.384116000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1455.790000</v>
+        <v>1455.79</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.336000</v>
+        <v>-365.33600000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>40993.448961</v>
+        <v>40993.448961000002</v>
       </c>
       <c r="BE13" s="1">
         <v>11.387069</v>
       </c>
       <c r="BF13" s="1">
-        <v>1540.620000</v>
+        <v>1540.62</v>
       </c>
       <c r="BG13" s="1">
-        <v>-614.945000</v>
+        <v>-614.94500000000005</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>41005.027572</v>
+        <v>41005.027571999999</v>
       </c>
       <c r="BJ13" s="1">
         <v>11.390285</v>
       </c>
       <c r="BK13" s="1">
-        <v>1693.990000</v>
+        <v>1693.99</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1063.160000</v>
+        <v>-1063.1600000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>41015.648405</v>
@@ -3503,120 +3919,120 @@
         <v>11.393236</v>
       </c>
       <c r="BP13" s="1">
-        <v>1987.090000</v>
+        <v>1987.09</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1841.510000</v>
+        <v>-1841.51</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>41026.601557</v>
+        <v>41026.601557000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>11.396278</v>
+        <v>11.396278000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2375.090000</v>
+        <v>2375.09</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2743.450000</v>
+        <v>-2743.45</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>41037.336471</v>
+        <v>41037.336471000002</v>
       </c>
       <c r="BY13" s="1">
-        <v>11.399260</v>
+        <v>11.39926</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2855.790000</v>
+        <v>2855.79</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3727.710000</v>
+        <v>-3727.71</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>41050.669926</v>
+        <v>41050.669926000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>11.402964</v>
+        <v>11.402964000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4271.300000</v>
+        <v>4271.3</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6102.180000</v>
+        <v>-6102.18</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>40878.172266</v>
+        <v>40878.172266000001</v>
       </c>
       <c r="B14" s="1">
         <v>11.355048</v>
       </c>
       <c r="C14" s="1">
-        <v>1258.740000</v>
+        <v>1258.74</v>
       </c>
       <c r="D14" s="1">
-        <v>-280.579000</v>
+        <v>-280.57900000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>40888.596220</v>
+        <v>40888.596219999999</v>
       </c>
       <c r="G14" s="1">
-        <v>11.357943</v>
+        <v>11.357943000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1279.750000</v>
+        <v>1279.75</v>
       </c>
       <c r="I14" s="1">
-        <v>-243.358000</v>
+        <v>-243.358</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>40899.064781</v>
+        <v>40899.064781000001</v>
       </c>
       <c r="L14" s="1">
         <v>11.360851</v>
       </c>
       <c r="M14" s="1">
-        <v>1311.470000</v>
+        <v>1311.47</v>
       </c>
       <c r="N14" s="1">
-        <v>-191.463000</v>
+        <v>-191.46299999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>40909.618624</v>
+        <v>40909.618624000002</v>
       </c>
       <c r="Q14" s="1">
         <v>11.363783</v>
       </c>
       <c r="R14" s="1">
-        <v>1323.290000</v>
+        <v>1323.29</v>
       </c>
       <c r="S14" s="1">
-        <v>-176.809000</v>
+        <v>-176.809</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>40920.128354</v>
@@ -3625,196 +4041,196 @@
         <v>11.366702</v>
       </c>
       <c r="W14" s="1">
-        <v>1336.940000</v>
+        <v>1336.94</v>
       </c>
       <c r="X14" s="1">
-        <v>-166.201000</v>
+        <v>-166.20099999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>40930.694663</v>
+        <v>40930.694663000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>11.369637</v>
+        <v>11.369637000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1354.850000</v>
+        <v>1354.85</v>
       </c>
       <c r="AC14" s="1">
-        <v>-166.785000</v>
+        <v>-166.785</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>40941.190966</v>
+        <v>40941.190966000002</v>
       </c>
       <c r="AF14" s="1">
         <v>11.372553</v>
       </c>
       <c r="AG14" s="1">
-        <v>1368.620000</v>
+        <v>1368.62</v>
       </c>
       <c r="AH14" s="1">
-        <v>-177.594000</v>
+        <v>-177.59399999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>40951.735913</v>
+        <v>40951.735912999997</v>
       </c>
       <c r="AK14" s="1">
         <v>11.375482</v>
       </c>
       <c r="AL14" s="1">
-        <v>1389.850000</v>
+        <v>1389.85</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.430000</v>
+        <v>-208.43</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>40961.814124</v>
+        <v>40961.814123999997</v>
       </c>
       <c r="AP14" s="1">
         <v>11.378282</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1411.820000</v>
+        <v>1411.82</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.729000</v>
+        <v>-252.72900000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>40972.504894</v>
+        <v>40972.504893999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>11.381251</v>
+        <v>11.381251000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1436.550000</v>
+        <v>1436.55</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.987000</v>
+        <v>-312.98700000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>40983.235342</v>
       </c>
       <c r="AZ14" s="1">
-        <v>11.384232</v>
+        <v>11.384232000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1455.790000</v>
+        <v>1455.79</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.316000</v>
+        <v>-365.31599999999997</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>40993.874063</v>
+        <v>40993.874063000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>11.387187</v>
+        <v>11.387187000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1540.580000</v>
+        <v>1540.58</v>
       </c>
       <c r="BG14" s="1">
-        <v>-614.940000</v>
+        <v>-614.94000000000005</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>41005.382209</v>
+        <v>41005.382209000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>11.390384</v>
+        <v>11.390383999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1694.030000</v>
+        <v>1694.03</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1063.190000</v>
+        <v>-1063.19</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>41016.047223</v>
+        <v>41016.047223000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>11.393346</v>
+        <v>11.393345999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1986.970000</v>
+        <v>1986.97</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1841.470000</v>
+        <v>-1841.47</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>41027.009766</v>
+        <v>41027.009766000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>11.396392</v>
+        <v>11.396392000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2375.070000</v>
+        <v>2375.0700000000002</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2743.870000</v>
+        <v>-2743.87</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>41037.758070</v>
+        <v>41037.758070000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>11.399377</v>
+        <v>11.399376999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2855.630000</v>
+        <v>2855.63</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3727.700000</v>
+        <v>-3727.7</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>41051.211556</v>
+        <v>41051.211556000002</v>
       </c>
       <c r="CD14" s="1">
         <v>11.403114</v>
       </c>
       <c r="CE14" s="1">
-        <v>4272.280000</v>
+        <v>4272.28</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6121.060000</v>
+        <v>-6121.06</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>40878.508554</v>
       </c>
@@ -3822,178 +4238,178 @@
         <v>11.355141</v>
       </c>
       <c r="C15" s="1">
-        <v>1258.830000</v>
+        <v>1258.83</v>
       </c>
       <c r="D15" s="1">
-        <v>-280.553000</v>
+        <v>-280.553</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>40889.257356</v>
+        <v>40889.257356000002</v>
       </c>
       <c r="G15" s="1">
         <v>11.358127</v>
       </c>
       <c r="H15" s="1">
-        <v>1279.400000</v>
+        <v>1279.4000000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-244.028000</v>
+        <v>-244.02799999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>40899.721949</v>
+        <v>40899.721948999999</v>
       </c>
       <c r="L15" s="1">
         <v>11.361034</v>
       </c>
       <c r="M15" s="1">
-        <v>1311.980000</v>
+        <v>1311.98</v>
       </c>
       <c r="N15" s="1">
-        <v>-191.479000</v>
+        <v>-191.47900000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>40910.012449</v>
+        <v>40910.012449000002</v>
       </c>
       <c r="Q15" s="1">
         <v>11.363892</v>
       </c>
       <c r="R15" s="1">
-        <v>1323.220000</v>
+        <v>1323.22</v>
       </c>
       <c r="S15" s="1">
-        <v>-176.732000</v>
+        <v>-176.732</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>40920.501383</v>
+        <v>40920.501383000003</v>
       </c>
       <c r="V15" s="1">
         <v>11.366806</v>
       </c>
       <c r="W15" s="1">
-        <v>1336.790000</v>
+        <v>1336.79</v>
       </c>
       <c r="X15" s="1">
-        <v>-166.184000</v>
+        <v>-166.184</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>40931.044839</v>
+        <v>40931.044839000002</v>
       </c>
       <c r="AA15" s="1">
         <v>11.369735</v>
       </c>
       <c r="AB15" s="1">
-        <v>1355.150000</v>
+        <v>1355.15</v>
       </c>
       <c r="AC15" s="1">
-        <v>-167.000000</v>
+        <v>-167</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>40941.536182</v>
+        <v>40941.536182000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>11.372649</v>
+        <v>11.372648999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1368.670000</v>
+        <v>1368.67</v>
       </c>
       <c r="AH15" s="1">
-        <v>-177.635000</v>
+        <v>-177.63499999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>40952.084104</v>
+        <v>40952.084104000001</v>
       </c>
       <c r="AK15" s="1">
         <v>11.375579</v>
       </c>
       <c r="AL15" s="1">
-        <v>1389.820000</v>
+        <v>1389.82</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.449000</v>
+        <v>-208.44900000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>40962.227818</v>
+        <v>40962.227817999999</v>
       </c>
       <c r="AP15" s="1">
         <v>11.378397</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1411.820000</v>
+        <v>1411.82</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.758000</v>
+        <v>-252.75800000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>40972.922029</v>
+        <v>40972.922029000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>11.381367</v>
+        <v>11.381366999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1436.550000</v>
+        <v>1436.55</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.994000</v>
+        <v>-312.99400000000003</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>40983.538398</v>
+        <v>40983.538397999997</v>
       </c>
       <c r="AZ15" s="1">
         <v>11.384316</v>
       </c>
       <c r="BA15" s="1">
-        <v>1455.800000</v>
+        <v>1455.8</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.339000</v>
+        <v>-365.339</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>40994.170146</v>
+        <v>40994.170145999997</v>
       </c>
       <c r="BE15" s="1">
         <v>11.387269</v>
       </c>
       <c r="BF15" s="1">
-        <v>1540.620000</v>
+        <v>1540.62</v>
       </c>
       <c r="BG15" s="1">
-        <v>-614.851000</v>
+        <v>-614.851</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>41005.755201</v>
@@ -4002,210 +4418,210 @@
         <v>11.390488</v>
       </c>
       <c r="BK15" s="1">
-        <v>1694.050000</v>
+        <v>1694.05</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1063.180000</v>
+        <v>-1063.18</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>41016.462340</v>
+        <v>41016.462339999998</v>
       </c>
       <c r="BO15" s="1">
         <v>11.393462</v>
       </c>
       <c r="BP15" s="1">
-        <v>1986.890000</v>
+        <v>1986.89</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1841.520000</v>
+        <v>-1841.52</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>41027.442287</v>
+        <v>41027.442286999998</v>
       </c>
       <c r="BT15" s="1">
         <v>11.396512</v>
       </c>
       <c r="BU15" s="1">
-        <v>2374.410000</v>
+        <v>2374.41</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2743.840000</v>
+        <v>-2743.84</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>41038.178182</v>
+        <v>41038.178182000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>11.399494</v>
+        <v>11.399494000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2855.570000</v>
+        <v>2855.57</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3727.160000</v>
+        <v>-3727.16</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>41051.749716</v>
+        <v>41051.749715999998</v>
       </c>
       <c r="CD15" s="1">
         <v>11.403264</v>
       </c>
       <c r="CE15" s="1">
-        <v>4287.190000</v>
+        <v>4287.1899999999996</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6109.810000</v>
+        <v>-6109.81</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>40879.164264</v>
+        <v>40879.164263999999</v>
       </c>
       <c r="B16" s="1">
         <v>11.355323</v>
       </c>
       <c r="C16" s="1">
-        <v>1258.840000</v>
+        <v>1258.8399999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-280.740000</v>
+        <v>-280.74</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>40889.630379</v>
+        <v>40889.630379000002</v>
       </c>
       <c r="G16" s="1">
         <v>11.358231</v>
       </c>
       <c r="H16" s="1">
-        <v>1279.870000</v>
+        <v>1279.8699999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-244.214000</v>
+        <v>-244.214</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>40900.100428</v>
+        <v>40900.100427999998</v>
       </c>
       <c r="L16" s="1">
         <v>11.361139</v>
       </c>
       <c r="M16" s="1">
-        <v>1311.660000</v>
+        <v>1311.66</v>
       </c>
       <c r="N16" s="1">
-        <v>-191.224000</v>
+        <v>-191.22399999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>40910.361165</v>
+        <v>40910.361165000002</v>
       </c>
       <c r="Q16" s="1">
         <v>11.363989</v>
       </c>
       <c r="R16" s="1">
-        <v>1323.300000</v>
+        <v>1323.3</v>
       </c>
       <c r="S16" s="1">
-        <v>-176.685000</v>
+        <v>-176.685</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>40920.840609</v>
+        <v>40920.840608999999</v>
       </c>
       <c r="V16" s="1">
-        <v>11.366900</v>
+        <v>11.366899999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1336.930000</v>
+        <v>1336.93</v>
       </c>
       <c r="X16" s="1">
-        <v>-166.283000</v>
+        <v>-166.28299999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>40931.392995</v>
+        <v>40931.392995000002</v>
       </c>
       <c r="AA16" s="1">
         <v>11.369831</v>
       </c>
       <c r="AB16" s="1">
-        <v>1355.130000</v>
+        <v>1355.13</v>
       </c>
       <c r="AC16" s="1">
-        <v>-166.939000</v>
+        <v>-166.93899999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>40941.930535</v>
       </c>
       <c r="AF16" s="1">
-        <v>11.372758</v>
+        <v>11.372757999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1368.620000</v>
+        <v>1368.62</v>
       </c>
       <c r="AH16" s="1">
-        <v>-177.603000</v>
+        <v>-177.60300000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>40952.516377</v>
       </c>
       <c r="AK16" s="1">
-        <v>11.375699</v>
+        <v>11.375698999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1389.840000</v>
+        <v>1389.84</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.421000</v>
+        <v>-208.42099999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>40962.534810</v>
+        <v>40962.534809999997</v>
       </c>
       <c r="AP16" s="1">
         <v>11.378482</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1411.820000</v>
+        <v>1411.82</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.718000</v>
+        <v>-252.71799999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>40973.233021</v>
@@ -4214,315 +4630,315 @@
         <v>11.381454</v>
       </c>
       <c r="AV16" s="1">
-        <v>1436.530000</v>
+        <v>1436.53</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.016000</v>
+        <v>-313.01600000000002</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>40983.896840</v>
+        <v>40983.896840000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>11.384416</v>
       </c>
       <c r="BA16" s="1">
-        <v>1455.830000</v>
+        <v>1455.83</v>
       </c>
       <c r="BB16" s="1">
-        <v>-365.322000</v>
+        <v>-365.322</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>40994.533220</v>
+        <v>40994.533219999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>11.387370</v>
+        <v>11.387370000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1540.620000</v>
+        <v>1540.62</v>
       </c>
       <c r="BG16" s="1">
-        <v>-614.955000</v>
+        <v>-614.95500000000004</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>41006.132161</v>
+        <v>41006.132161000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>11.390592</v>
       </c>
       <c r="BK16" s="1">
-        <v>1694.040000</v>
+        <v>1694.04</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1063.180000</v>
+        <v>-1063.18</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>41016.863108</v>
+        <v>41016.863107999998</v>
       </c>
       <c r="BO16" s="1">
         <v>11.393573</v>
       </c>
       <c r="BP16" s="1">
-        <v>1986.970000</v>
+        <v>1986.97</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1841.490000</v>
+        <v>-1841.49</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>41027.870324</v>
+        <v>41027.870324000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>11.396631</v>
+        <v>11.396630999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2374.340000</v>
+        <v>2374.34</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2744.280000</v>
+        <v>-2744.28</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>41038.607755</v>
+        <v>41038.607754999997</v>
       </c>
       <c r="BY16" s="1">
         <v>11.399613</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2854.570000</v>
+        <v>2854.57</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3726.860000</v>
+        <v>-3726.86</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>41052.292868</v>
+        <v>41052.292867999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>11.403415</v>
+        <v>11.403415000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4262.770000</v>
+        <v>4262.7700000000004</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6111.240000</v>
+        <v>-6111.24</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>40879.537753</v>
+        <v>40879.537752999997</v>
       </c>
       <c r="B17" s="1">
-        <v>11.355427</v>
+        <v>11.355427000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1258.860000</v>
+        <v>1258.8599999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-280.334000</v>
+        <v>-280.334</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>40889.976059</v>
+        <v>40889.976059000001</v>
       </c>
       <c r="G17" s="1">
-        <v>11.358327</v>
+        <v>11.358326999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1279.170000</v>
+        <v>1279.17</v>
       </c>
       <c r="I17" s="1">
-        <v>-243.736000</v>
+        <v>-243.73599999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>40900.449581</v>
+        <v>40900.449581000001</v>
       </c>
       <c r="L17" s="1">
         <v>11.361236</v>
       </c>
       <c r="M17" s="1">
-        <v>1311.890000</v>
+        <v>1311.89</v>
       </c>
       <c r="N17" s="1">
-        <v>-191.419000</v>
+        <v>-191.41900000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>40910.710320</v>
+        <v>40910.710319999998</v>
       </c>
       <c r="Q17" s="1">
         <v>11.364086</v>
       </c>
       <c r="R17" s="1">
-        <v>1323.310000</v>
+        <v>1323.31</v>
       </c>
       <c r="S17" s="1">
-        <v>-176.696000</v>
+        <v>-176.696</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>40921.186818</v>
+        <v>40921.186818000002</v>
       </c>
       <c r="V17" s="1">
         <v>11.366996</v>
       </c>
       <c r="W17" s="1">
-        <v>1336.850000</v>
+        <v>1336.85</v>
       </c>
       <c r="X17" s="1">
-        <v>-166.190000</v>
+        <v>-166.19</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>40931.809138</v>
+        <v>40931.809137999997</v>
       </c>
       <c r="AA17" s="1">
         <v>11.369947</v>
       </c>
       <c r="AB17" s="1">
-        <v>1355.090000</v>
+        <v>1355.09</v>
       </c>
       <c r="AC17" s="1">
-        <v>-166.728000</v>
+        <v>-166.72800000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>40942.567364</v>
+        <v>40942.567364000002</v>
       </c>
       <c r="AF17" s="1">
         <v>11.372935</v>
       </c>
       <c r="AG17" s="1">
-        <v>1368.650000</v>
+        <v>1368.65</v>
       </c>
       <c r="AH17" s="1">
-        <v>-177.582000</v>
+        <v>-177.58199999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>40952.796359</v>
       </c>
       <c r="AK17" s="1">
-        <v>11.375777</v>
+        <v>11.375776999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1389.850000</v>
+        <v>1389.85</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.477000</v>
+        <v>-208.477</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>40962.894938</v>
+        <v>40962.894937999998</v>
       </c>
       <c r="AP17" s="1">
         <v>11.378582</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1411.820000</v>
+        <v>1411.82</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.773000</v>
+        <v>-252.773</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>40973.596587</v>
       </c>
       <c r="AU17" s="1">
-        <v>11.381555</v>
+        <v>11.381555000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1436.510000</v>
+        <v>1436.51</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.986000</v>
+        <v>-312.98599999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>40984.257101</v>
+        <v>40984.257101000003</v>
       </c>
       <c r="AZ17" s="1">
         <v>11.384516</v>
       </c>
       <c r="BA17" s="1">
-        <v>1455.820000</v>
+        <v>1455.82</v>
       </c>
       <c r="BB17" s="1">
-        <v>-365.299000</v>
+        <v>-365.29899999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>40994.893312</v>
       </c>
       <c r="BE17" s="1">
-        <v>11.387470</v>
+        <v>11.38747</v>
       </c>
       <c r="BF17" s="1">
-        <v>1540.590000</v>
+        <v>1540.59</v>
       </c>
       <c r="BG17" s="1">
-        <v>-614.886000</v>
+        <v>-614.88599999999997</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>41006.884122</v>
+        <v>41006.884122000003</v>
       </c>
       <c r="BJ17" s="1">
         <v>11.390801</v>
       </c>
       <c r="BK17" s="1">
-        <v>1694.020000</v>
+        <v>1694.02</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1063.150000</v>
+        <v>-1063.1500000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>41017.286194</v>
@@ -4531,105 +4947,105 @@
         <v>11.393691</v>
       </c>
       <c r="BP17" s="1">
-        <v>1986.970000</v>
+        <v>1986.97</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1841.530000</v>
+        <v>-1841.53</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>41028.282037</v>
+        <v>41028.282036999997</v>
       </c>
       <c r="BT17" s="1">
-        <v>11.396745</v>
+        <v>11.396744999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2374.010000</v>
+        <v>2374.0100000000002</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2744.210000</v>
+        <v>-2744.21</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>41039.018901</v>
+        <v>41039.018901000003</v>
       </c>
       <c r="BY17" s="1">
         <v>11.399727</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2854.950000</v>
+        <v>2854.95</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3726.660000</v>
+        <v>-3726.66</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>41052.832514</v>
+        <v>41052.832514000002</v>
       </c>
       <c r="CD17" s="1">
         <v>11.403565</v>
       </c>
       <c r="CE17" s="1">
-        <v>4283.560000</v>
+        <v>4283.5600000000004</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6119.750000</v>
+        <v>-6119.75</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>40879.882997</v>
+        <v>40879.882997000001</v>
       </c>
       <c r="B18" s="1">
         <v>11.355523</v>
       </c>
       <c r="C18" s="1">
-        <v>1258.780000</v>
+        <v>1258.78</v>
       </c>
       <c r="D18" s="1">
-        <v>-280.677000</v>
+        <v>-280.67700000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>40890.324745</v>
+        <v>40890.324744999998</v>
       </c>
       <c r="G18" s="1">
-        <v>11.358424</v>
+        <v>11.358423999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1279.280000</v>
+        <v>1279.28</v>
       </c>
       <c r="I18" s="1">
-        <v>-245.060000</v>
+        <v>-245.06</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>40900.796315</v>
       </c>
       <c r="L18" s="1">
-        <v>11.361332</v>
+        <v>11.361332000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1312.010000</v>
+        <v>1312.01</v>
       </c>
       <c r="N18" s="1">
-        <v>-191.499000</v>
+        <v>-191.499</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>40911.138863</v>
@@ -4638,13 +5054,13 @@
         <v>11.364205</v>
       </c>
       <c r="R18" s="1">
-        <v>1323.290000</v>
+        <v>1323.29</v>
       </c>
       <c r="S18" s="1">
-        <v>-176.622000</v>
+        <v>-176.62200000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>40921.599489</v>
@@ -4653,390 +5069,390 @@
         <v>11.367111</v>
       </c>
       <c r="W18" s="1">
-        <v>1336.910000</v>
+        <v>1336.91</v>
       </c>
       <c r="X18" s="1">
-        <v>-166.187000</v>
+        <v>-166.18700000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>40932.101579</v>
+        <v>40932.101579000002</v>
       </c>
       <c r="AA18" s="1">
         <v>11.370028</v>
       </c>
       <c r="AB18" s="1">
-        <v>1355.230000</v>
+        <v>1355.23</v>
       </c>
       <c r="AC18" s="1">
-        <v>-166.760000</v>
+        <v>-166.76</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>40942.913572</v>
+        <v>40942.913571999998</v>
       </c>
       <c r="AF18" s="1">
         <v>11.373032</v>
       </c>
       <c r="AG18" s="1">
-        <v>1368.590000</v>
+        <v>1368.59</v>
       </c>
       <c r="AH18" s="1">
-        <v>-177.620000</v>
+        <v>-177.62</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>40953.144550</v>
+        <v>40953.144549999997</v>
       </c>
       <c r="AK18" s="1">
         <v>11.375873</v>
       </c>
       <c r="AL18" s="1">
-        <v>1389.830000</v>
+        <v>1389.83</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.452000</v>
+        <v>-208.452</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>40963.255033</v>
+        <v>40963.255033000001</v>
       </c>
       <c r="AP18" s="1">
         <v>11.378682</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1411.870000</v>
+        <v>1411.87</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.797000</v>
+        <v>-252.797</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>40973.962171</v>
+        <v>40973.962170999999</v>
       </c>
       <c r="AU18" s="1">
         <v>11.381656</v>
       </c>
       <c r="AV18" s="1">
-        <v>1436.530000</v>
+        <v>1436.53</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.961000</v>
+        <v>-312.96100000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>40984.972332</v>
+        <v>40984.972331999998</v>
       </c>
       <c r="AZ18" s="1">
         <v>11.384715</v>
       </c>
       <c r="BA18" s="1">
-        <v>1455.790000</v>
+        <v>1455.79</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.300000</v>
+        <v>-365.3</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>40995.615022</v>
+        <v>40995.615021999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>11.387671</v>
+        <v>11.387670999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1540.600000</v>
+        <v>1540.6</v>
       </c>
       <c r="BG18" s="1">
-        <v>-614.891000</v>
+        <v>-614.89099999999996</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>41007.257584</v>
+        <v>41007.257583999999</v>
       </c>
       <c r="BJ18" s="1">
         <v>11.390905</v>
       </c>
       <c r="BK18" s="1">
-        <v>1694.090000</v>
+        <v>1694.09</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1063.110000</v>
+        <v>-1063.1099999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>41017.684000</v>
+        <v>41017.684000000001</v>
       </c>
       <c r="BO18" s="1">
         <v>11.393801</v>
       </c>
       <c r="BP18" s="1">
-        <v>1987.080000</v>
+        <v>1987.08</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1841.560000</v>
+        <v>-1841.56</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>41028.711042</v>
+        <v>41028.711042000003</v>
       </c>
       <c r="BT18" s="1">
-        <v>11.396864</v>
+        <v>11.396864000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>2373.430000</v>
+        <v>2373.4299999999998</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2744.300000</v>
+        <v>-2744.3</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>41039.477206</v>
+        <v>41039.477206000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>11.399855</v>
+        <v>11.399855000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2854.500000</v>
+        <v>2854.5</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3727.390000</v>
+        <v>-3727.39</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>41053.676706</v>
+        <v>41053.676705999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>11.403799</v>
+        <v>11.403798999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4265.580000</v>
+        <v>4265.58</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6115.990000</v>
+        <v>-6115.99</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>40880.223721</v>
+        <v>40880.223721000002</v>
       </c>
       <c r="B19" s="1">
         <v>11.355618</v>
       </c>
       <c r="C19" s="1">
-        <v>1258.980000</v>
+        <v>1258.98</v>
       </c>
       <c r="D19" s="1">
-        <v>-280.686000</v>
+        <v>-280.68599999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>40890.742385</v>
+        <v>40890.742384999998</v>
       </c>
       <c r="G19" s="1">
-        <v>11.358540</v>
+        <v>11.35854</v>
       </c>
       <c r="H19" s="1">
-        <v>1279.740000</v>
+        <v>1279.74</v>
       </c>
       <c r="I19" s="1">
-        <v>-244.038000</v>
+        <v>-244.03800000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>40901.216411</v>
+        <v>40901.216411000001</v>
       </c>
       <c r="L19" s="1">
         <v>11.361449</v>
       </c>
       <c r="M19" s="1">
-        <v>1311.860000</v>
+        <v>1311.86</v>
       </c>
       <c r="N19" s="1">
-        <v>-191.829000</v>
+        <v>-191.82900000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>40911.420249</v>
+        <v>40911.420249000003</v>
       </c>
       <c r="Q19" s="1">
         <v>11.364283</v>
       </c>
       <c r="R19" s="1">
-        <v>1323.320000</v>
+        <v>1323.32</v>
       </c>
       <c r="S19" s="1">
-        <v>-176.769000</v>
+        <v>-176.76900000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>40921.913457</v>
+        <v>40921.913457000002</v>
       </c>
       <c r="V19" s="1">
         <v>11.367198</v>
       </c>
       <c r="W19" s="1">
-        <v>1337.040000</v>
+        <v>1337.04</v>
       </c>
       <c r="X19" s="1">
-        <v>-166.264000</v>
+        <v>-166.26400000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>40932.450964</v>
+        <v>40932.450964000003</v>
       </c>
       <c r="AA19" s="1">
         <v>11.370125</v>
       </c>
       <c r="AB19" s="1">
-        <v>1355.070000</v>
+        <v>1355.07</v>
       </c>
       <c r="AC19" s="1">
-        <v>-166.789000</v>
+        <v>-166.78899999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>40943.257300</v>
+        <v>40943.257299999997</v>
       </c>
       <c r="AF19" s="1">
         <v>11.373127</v>
       </c>
       <c r="AG19" s="1">
-        <v>1368.550000</v>
+        <v>1368.55</v>
       </c>
       <c r="AH19" s="1">
-        <v>-177.578000</v>
+        <v>-177.578</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>40953.491781</v>
+        <v>40953.491780999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>11.375970</v>
+        <v>11.375970000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1389.820000</v>
+        <v>1389.82</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.527000</v>
+        <v>-208.52699999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>40963.975688</v>
+        <v>40963.975687999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>11.378882</v>
+        <v>11.378882000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1411.860000</v>
+        <v>1411.86</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.759000</v>
+        <v>-252.75899999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>40974.690297</v>
+        <v>40974.690297000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>11.381858</v>
+        <v>11.381857999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1436.500000</v>
+        <v>1436.5</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.965000</v>
+        <v>-312.96499999999997</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>40985.331964</v>
+        <v>40985.331963999997</v>
       </c>
       <c r="AZ19" s="1">
         <v>11.384814</v>
       </c>
       <c r="BA19" s="1">
-        <v>1455.800000</v>
+        <v>1455.8</v>
       </c>
       <c r="BB19" s="1">
-        <v>-365.291000</v>
+        <v>-365.291</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>40995.978062</v>
+        <v>40995.978062000002</v>
       </c>
       <c r="BE19" s="1">
         <v>11.387772</v>
       </c>
       <c r="BF19" s="1">
-        <v>1540.630000</v>
+        <v>1540.63</v>
       </c>
       <c r="BG19" s="1">
-        <v>-614.874000</v>
+        <v>-614.87400000000002</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>41007.633056</v>
+        <v>41007.633055999999</v>
       </c>
       <c r="BJ19" s="1">
         <v>11.391009</v>
       </c>
       <c r="BK19" s="1">
-        <v>1694.030000</v>
+        <v>1694.03</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1063.170000</v>
+        <v>-1063.17</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>41018.101122</v>
@@ -5045,61 +5461,61 @@
         <v>11.393917</v>
       </c>
       <c r="BP19" s="1">
-        <v>1986.890000</v>
+        <v>1986.89</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1841.360000</v>
+        <v>-1841.36</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>41029.446154</v>
+        <v>41029.446153999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>11.397068</v>
+        <v>11.397068000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>2372.970000</v>
+        <v>2372.9699999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2744.260000</v>
+        <v>-2744.26</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>41041.163139</v>
+        <v>41041.163138999997</v>
       </c>
       <c r="BY19" s="1">
         <v>11.400323</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2855.220000</v>
+        <v>2855.22</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3727.610000</v>
+        <v>-3727.61</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>41053.909297</v>
+        <v>41053.909296999998</v>
       </c>
       <c r="CD19" s="1">
         <v>11.403864</v>
       </c>
       <c r="CE19" s="1">
-        <v>4265.530000</v>
+        <v>4265.53</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6118.260000</v>
+        <v>-6118.26</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>40880.643375</v>
       </c>
@@ -5107,677 +5523,677 @@
         <v>11.355734</v>
       </c>
       <c r="C20" s="1">
-        <v>1258.830000</v>
+        <v>1258.83</v>
       </c>
       <c r="D20" s="1">
-        <v>-280.789000</v>
+        <v>-280.78899999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>40891.022120</v>
+        <v>40891.022120000001</v>
       </c>
       <c r="G20" s="1">
-        <v>11.358617</v>
+        <v>11.358617000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1279.680000</v>
+        <v>1279.68</v>
       </c>
       <c r="I20" s="1">
-        <v>-244.455000</v>
+        <v>-244.45500000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>40901.489691</v>
+        <v>40901.489691000002</v>
       </c>
       <c r="L20" s="1">
         <v>11.361525</v>
       </c>
       <c r="M20" s="1">
-        <v>1311.860000</v>
+        <v>1311.86</v>
       </c>
       <c r="N20" s="1">
-        <v>-191.500000</v>
+        <v>-191.5</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>40911.769278</v>
       </c>
       <c r="Q20" s="1">
-        <v>11.364380</v>
+        <v>11.364380000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1323.270000</v>
+        <v>1323.27</v>
       </c>
       <c r="S20" s="1">
-        <v>-176.775000</v>
+        <v>-176.77500000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>40922.262640</v>
+        <v>40922.262640000001</v>
       </c>
       <c r="V20" s="1">
         <v>11.367295</v>
       </c>
       <c r="W20" s="1">
-        <v>1336.900000</v>
+        <v>1336.9</v>
       </c>
       <c r="X20" s="1">
-        <v>-166.291000</v>
+        <v>-166.291</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>40932.801650</v>
+        <v>40932.801650000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>11.370223</v>
+        <v>11.370222999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1355.210000</v>
+        <v>1355.21</v>
       </c>
       <c r="AC20" s="1">
-        <v>-166.674000</v>
+        <v>-166.67400000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>40943.944279</v>
+        <v>40943.944279000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>11.373318</v>
+        <v>11.373317999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1368.580000</v>
+        <v>1368.58</v>
       </c>
       <c r="AH20" s="1">
-        <v>-177.590000</v>
+        <v>-177.59</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>40954.190153</v>
+        <v>40954.190153000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>11.376164</v>
+        <v>11.376163999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1389.890000</v>
+        <v>1389.89</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.542000</v>
+        <v>-208.542</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>40964.335783</v>
+        <v>40964.335783000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>11.378982</v>
+        <v>11.378982000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1411.850000</v>
+        <v>1411.85</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.787000</v>
+        <v>-252.78700000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>40975.084587</v>
+        <v>40975.084586999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>11.381968</v>
+        <v>11.381968000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1436.520000</v>
+        <v>1436.52</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.983000</v>
+        <v>-312.983</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>40985.690044</v>
+        <v>40985.690044000003</v>
       </c>
       <c r="AZ20" s="1">
         <v>11.384914</v>
       </c>
       <c r="BA20" s="1">
-        <v>1455.770000</v>
+        <v>1455.77</v>
       </c>
       <c r="BB20" s="1">
-        <v>-365.280000</v>
+        <v>-365.28</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>40996.337661</v>
+        <v>40996.337660999998</v>
       </c>
       <c r="BE20" s="1">
         <v>11.387872</v>
       </c>
       <c r="BF20" s="1">
-        <v>1540.570000</v>
+        <v>1540.57</v>
       </c>
       <c r="BG20" s="1">
-        <v>-614.878000</v>
+        <v>-614.87800000000004</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>41008.314558</v>
+        <v>41008.314557999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>11.391198</v>
+        <v>11.391197999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1694.040000</v>
+        <v>1694.04</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1063.150000</v>
+        <v>-1063.1500000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>41018.797999</v>
+        <v>41018.797999000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>11.394111</v>
+        <v>11.394111000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1987.000000</v>
+        <v>1987</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1841.460000</v>
+        <v>-1841.46</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>41029.585032</v>
+        <v>41029.585032000003</v>
       </c>
       <c r="BT20" s="1">
         <v>11.397107</v>
       </c>
       <c r="BU20" s="1">
-        <v>2372.640000</v>
+        <v>2372.64</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2744.170000</v>
+        <v>-2744.17</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>41041.614466</v>
+        <v>41041.614465999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>11.400448</v>
+        <v>11.400448000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2854.650000</v>
+        <v>2854.65</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3727.350000</v>
+        <v>-3727.35</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>41054.430593</v>
+        <v>41054.430592999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>11.404008</v>
+        <v>11.404007999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>4283.750000</v>
+        <v>4283.75</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6121.150000</v>
+        <v>-6121.15</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>40880.924598</v>
+        <v>40880.924597999998</v>
       </c>
       <c r="B21" s="1">
         <v>11.355812</v>
       </c>
       <c r="C21" s="1">
-        <v>1259.080000</v>
+        <v>1259.08</v>
       </c>
       <c r="D21" s="1">
-        <v>-280.738000</v>
+        <v>-280.738</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>40891.363898</v>
+        <v>40891.363898000003</v>
       </c>
       <c r="G21" s="1">
-        <v>11.358712</v>
+        <v>11.358712000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1279.720000</v>
+        <v>1279.72</v>
       </c>
       <c r="I21" s="1">
-        <v>-243.485000</v>
+        <v>-243.48500000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>40901.843339</v>
+        <v>40901.843338999999</v>
       </c>
       <c r="L21" s="1">
         <v>11.361623</v>
       </c>
       <c r="M21" s="1">
-        <v>1311.750000</v>
+        <v>1311.75</v>
       </c>
       <c r="N21" s="1">
-        <v>-191.594000</v>
+        <v>-191.59399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>40912.115516</v>
+        <v>40912.115515999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>11.364477</v>
+        <v>11.364477000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1323.170000</v>
+        <v>1323.17</v>
       </c>
       <c r="S21" s="1">
-        <v>-176.711000</v>
+        <v>-176.71100000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>40922.883630</v>
+        <v>40922.883629999997</v>
       </c>
       <c r="V21" s="1">
-        <v>11.367468</v>
+        <v>11.367468000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1336.760000</v>
+        <v>1336.76</v>
       </c>
       <c r="X21" s="1">
-        <v>-166.286000</v>
+        <v>-166.286</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>40933.493552</v>
       </c>
       <c r="AA21" s="1">
-        <v>11.370415</v>
+        <v>11.370414999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1355.170000</v>
+        <v>1355.17</v>
       </c>
       <c r="AC21" s="1">
-        <v>-166.688000</v>
+        <v>-166.68799999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>40944.290006</v>
+        <v>40944.290006000003</v>
       </c>
       <c r="AF21" s="1">
         <v>11.373414</v>
       </c>
       <c r="AG21" s="1">
-        <v>1368.660000</v>
+        <v>1368.66</v>
       </c>
       <c r="AH21" s="1">
-        <v>-177.551000</v>
+        <v>-177.55099999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>40954.538344</v>
+        <v>40954.538344000001</v>
       </c>
       <c r="AK21" s="1">
         <v>11.376261</v>
       </c>
       <c r="AL21" s="1">
-        <v>1389.860000</v>
+        <v>1389.86</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.590000</v>
+        <v>-208.59</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>40964.695415</v>
+        <v>40964.695415000002</v>
       </c>
       <c r="AP21" s="1">
         <v>11.379082</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1411.870000</v>
+        <v>1411.87</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.777000</v>
+        <v>-252.77699999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>40975.448681</v>
+        <v>40975.448681000002</v>
       </c>
       <c r="AU21" s="1">
         <v>11.382069</v>
       </c>
       <c r="AV21" s="1">
-        <v>1436.540000</v>
+        <v>1436.54</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.969000</v>
+        <v>-312.96899999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>40986.365098</v>
+        <v>40986.365098000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>11.385101</v>
+        <v>11.385101000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1455.790000</v>
+        <v>1455.79</v>
       </c>
       <c r="BB21" s="1">
-        <v>-365.274000</v>
+        <v>-365.274</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>40997.008749</v>
+        <v>40997.008749000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>11.388058</v>
+        <v>11.388057999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1540.570000</v>
+        <v>1540.57</v>
       </c>
       <c r="BG21" s="1">
-        <v>-614.849000</v>
+        <v>-614.84900000000005</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>41008.760957</v>
+        <v>41008.760956999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>11.391322</v>
+        <v>11.391322000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1693.990000</v>
+        <v>1693.99</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1063.090000</v>
+        <v>-1063.0899999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>41018.920015</v>
+        <v>41018.920015000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>11.394144</v>
+        <v>11.394144000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1986.960000</v>
+        <v>1986.96</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1841.360000</v>
+        <v>-1841.36</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>41029.997665</v>
+        <v>41029.997665000003</v>
       </c>
       <c r="BT21" s="1">
-        <v>11.397222</v>
+        <v>11.397221999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2372.180000</v>
+        <v>2372.1799999999998</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2744.590000</v>
+        <v>-2744.59</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>41042.062385</v>
+        <v>41042.062384999997</v>
       </c>
       <c r="BY21" s="1">
         <v>11.400573</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2855.630000</v>
+        <v>2855.63</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3726.850000</v>
+        <v>-3726.85</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>41054.945440</v>
+        <v>41054.945440000003</v>
       </c>
       <c r="CD21" s="1">
         <v>11.404152</v>
       </c>
       <c r="CE21" s="1">
-        <v>4273.010000</v>
+        <v>4273.01</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6123.430000</v>
+        <v>-6123.43</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>40881.264822</v>
+        <v>40881.264821999997</v>
       </c>
       <c r="B22" s="1">
         <v>11.355907</v>
       </c>
       <c r="C22" s="1">
-        <v>1258.910000</v>
+        <v>1258.9100000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-280.583000</v>
+        <v>-280.58300000000003</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>40891.710104</v>
+        <v>40891.710103999998</v>
       </c>
       <c r="G22" s="1">
         <v>11.358808</v>
       </c>
       <c r="H22" s="1">
-        <v>1280.050000</v>
+        <v>1280.05</v>
       </c>
       <c r="I22" s="1">
-        <v>-244.575000</v>
+        <v>-244.57499999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>40902.189082</v>
+        <v>40902.189081999997</v>
       </c>
       <c r="L22" s="1">
-        <v>11.361719</v>
+        <v>11.361719000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1311.690000</v>
+        <v>1311.69</v>
       </c>
       <c r="N22" s="1">
-        <v>-191.423000</v>
+        <v>-191.423</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>40912.812397</v>
+        <v>40912.812397000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>11.364670</v>
+        <v>11.36467</v>
       </c>
       <c r="R22" s="1">
-        <v>1323.320000</v>
+        <v>1323.32</v>
       </c>
       <c r="S22" s="1">
-        <v>-176.669000</v>
+        <v>-176.66900000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>40923.293325</v>
+        <v>40923.293324999999</v>
       </c>
       <c r="V22" s="1">
-        <v>11.367581</v>
+        <v>11.367580999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1336.860000</v>
+        <v>1336.86</v>
       </c>
       <c r="X22" s="1">
-        <v>-166.309000</v>
+        <v>-166.309</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>40933.842276</v>
+        <v>40933.842276000003</v>
       </c>
       <c r="AA22" s="1">
         <v>11.370512</v>
       </c>
       <c r="AB22" s="1">
-        <v>1354.970000</v>
+        <v>1354.97</v>
       </c>
       <c r="AC22" s="1">
-        <v>-166.655000</v>
+        <v>-166.655</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>40944.637697</v>
+        <v>40944.637696999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>11.373510</v>
+        <v>11.37351</v>
       </c>
       <c r="AG22" s="1">
-        <v>1368.580000</v>
+        <v>1368.58</v>
       </c>
       <c r="AH22" s="1">
-        <v>-177.586000</v>
+        <v>-177.58600000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>40954.887988</v>
+        <v>40954.887988000002</v>
       </c>
       <c r="AK22" s="1">
         <v>11.376358</v>
       </c>
       <c r="AL22" s="1">
-        <v>1389.850000</v>
+        <v>1389.85</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.595000</v>
+        <v>-208.595</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>40965.364488</v>
+        <v>40965.364487999999</v>
       </c>
       <c r="AP22" s="1">
         <v>11.379268</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1411.890000</v>
+        <v>1411.89</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.806000</v>
+        <v>-252.80600000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>40976.116264</v>
+        <v>40976.116263999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>11.382255</v>
+        <v>11.382255000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1436.550000</v>
+        <v>1436.55</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.964000</v>
+        <v>-312.964</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>40986.797641</v>
+        <v>40986.797640999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>11.385222</v>
+        <v>11.385222000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1455.830000</v>
+        <v>1455.83</v>
       </c>
       <c r="BB22" s="1">
-        <v>-365.279000</v>
+        <v>-365.279</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>40997.453661</v>
@@ -5786,195 +6202,195 @@
         <v>11.388182</v>
       </c>
       <c r="BF22" s="1">
-        <v>1540.570000</v>
+        <v>1540.57</v>
       </c>
       <c r="BG22" s="1">
-        <v>-614.878000</v>
+        <v>-614.87800000000004</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>41009.133978</v>
+        <v>41009.133977999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>11.391426</v>
+        <v>11.391425999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1693.930000</v>
+        <v>1693.93</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1063.110000</v>
+        <v>-1063.1099999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>41019.345088</v>
+        <v>41019.345088000002</v>
       </c>
       <c r="BO22" s="1">
         <v>11.394263</v>
       </c>
       <c r="BP22" s="1">
-        <v>1986.790000</v>
+        <v>1986.79</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1841.330000</v>
+        <v>-1841.33</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>41030.424225</v>
+        <v>41030.424225000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>11.397340</v>
+        <v>11.39734</v>
       </c>
       <c r="BU22" s="1">
-        <v>2371.680000</v>
+        <v>2371.6799999999998</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2743.840000</v>
+        <v>-2743.84</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>41042.491394</v>
+        <v>41042.491393999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>11.400692</v>
+        <v>11.400691999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2855.530000</v>
+        <v>2855.53</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3726.250000</v>
+        <v>-3726.25</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>41055.498518</v>
       </c>
       <c r="CD22" s="1">
-        <v>11.404305</v>
+        <v>11.404305000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4265.290000</v>
+        <v>4265.29</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6116.380000</v>
+        <v>-6116.38</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>40881.609079</v>
+        <v>40881.609079000002</v>
       </c>
       <c r="B23" s="1">
-        <v>11.356003</v>
+        <v>11.356002999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1258.610000</v>
+        <v>1258.6099999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-280.634000</v>
+        <v>-280.63400000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>40892.398024</v>
+        <v>40892.398024000002</v>
       </c>
       <c r="G23" s="1">
-        <v>11.358999</v>
+        <v>11.358999000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1279.410000</v>
+        <v>1279.4100000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-244.744000</v>
+        <v>-244.744</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>40902.879513</v>
       </c>
       <c r="L23" s="1">
-        <v>11.361911</v>
+        <v>11.361910999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1312.170000</v>
+        <v>1312.17</v>
       </c>
       <c r="N23" s="1">
-        <v>-191.698000</v>
+        <v>-191.69800000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>40913.160556</v>
+        <v>40913.160556000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>11.364767</v>
+        <v>11.364767000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1323.350000</v>
+        <v>1323.35</v>
       </c>
       <c r="S23" s="1">
-        <v>-176.653000</v>
+        <v>-176.65299999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>40923.625647</v>
+        <v>40923.625647000001</v>
       </c>
       <c r="V23" s="1">
-        <v>11.367674</v>
+        <v>11.367673999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1336.970000</v>
+        <v>1336.97</v>
       </c>
       <c r="X23" s="1">
-        <v>-166.308000</v>
+        <v>-166.30799999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>40934.192946</v>
+        <v>40934.192946000003</v>
       </c>
       <c r="AA23" s="1">
         <v>11.370609</v>
       </c>
       <c r="AB23" s="1">
-        <v>1354.920000</v>
+        <v>1354.92</v>
       </c>
       <c r="AC23" s="1">
-        <v>-166.710000</v>
+        <v>-166.71</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>40945.286433</v>
+        <v>40945.286433000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>11.373691</v>
+        <v>11.373691000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1368.610000</v>
+        <v>1368.61</v>
       </c>
       <c r="AH23" s="1">
-        <v>-177.632000</v>
+        <v>-177.63200000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>40955.536259</v>
@@ -5983,512 +6399,512 @@
         <v>11.376538</v>
       </c>
       <c r="AL23" s="1">
-        <v>1389.810000</v>
+        <v>1389.81</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.576000</v>
+        <v>-208.57599999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>40965.811381</v>
       </c>
       <c r="AP23" s="1">
-        <v>11.379392</v>
+        <v>11.379391999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1411.880000</v>
+        <v>1411.88</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.776000</v>
+        <v>-252.77600000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>40976.575559</v>
+        <v>40976.575558999997</v>
       </c>
       <c r="AU23" s="1">
         <v>11.382382</v>
       </c>
       <c r="AV23" s="1">
-        <v>1436.530000</v>
+        <v>1436.53</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.984000</v>
+        <v>-312.98399999999998</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>40987.158203</v>
+        <v>40987.158202999999</v>
       </c>
       <c r="AZ23" s="1">
         <v>11.385322</v>
       </c>
       <c r="BA23" s="1">
-        <v>1455.790000</v>
+        <v>1455.79</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.285000</v>
+        <v>-365.28500000000003</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>40997.815245</v>
+        <v>40997.815244999998</v>
       </c>
       <c r="BE23" s="1">
         <v>11.388282</v>
       </c>
       <c r="BF23" s="1">
-        <v>1540.570000</v>
+        <v>1540.57</v>
       </c>
       <c r="BG23" s="1">
-        <v>-614.844000</v>
+        <v>-614.84400000000005</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>41009.512428</v>
+        <v>41009.512428000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>11.391531</v>
+        <v>11.391531000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1694.060000</v>
+        <v>1694.06</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1063.130000</v>
+        <v>-1063.1300000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>41019.741888</v>
+        <v>41019.741887999997</v>
       </c>
       <c r="BO23" s="1">
         <v>11.394373</v>
       </c>
       <c r="BP23" s="1">
-        <v>1986.940000</v>
+        <v>1986.94</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1841.460000</v>
+        <v>-1841.46</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>41030.845362</v>
       </c>
       <c r="BT23" s="1">
-        <v>11.397457</v>
+        <v>11.397456999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2371.310000</v>
+        <v>2371.31</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2744.000000</v>
+        <v>-2744</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>41042.913519</v>
+        <v>41042.913519000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>11.400809</v>
+        <v>11.400809000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2854.810000</v>
+        <v>2854.81</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3726.300000</v>
+        <v>-3726.3</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>41056.030687</v>
+        <v>41056.030686999999</v>
       </c>
       <c r="CD23" s="1">
         <v>11.404453</v>
       </c>
       <c r="CE23" s="1">
-        <v>4282.530000</v>
+        <v>4282.53</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6121.160000</v>
+        <v>-6121.16</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>40882.287076</v>
+        <v>40882.287076000001</v>
       </c>
       <c r="B24" s="1">
-        <v>11.356191</v>
+        <v>11.356191000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1258.790000</v>
+        <v>1258.79</v>
       </c>
       <c r="D24" s="1">
-        <v>-280.536000</v>
+        <v>-280.536</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>40892.745222</v>
+        <v>40892.745221999998</v>
       </c>
       <c r="G24" s="1">
-        <v>11.359096</v>
+        <v>11.359095999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1279.710000</v>
+        <v>1279.71</v>
       </c>
       <c r="I24" s="1">
-        <v>-244.564000</v>
+        <v>-244.56399999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>40903.257929</v>
+        <v>40903.257928999999</v>
       </c>
       <c r="L24" s="1">
-        <v>11.362016</v>
+        <v>11.362016000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1311.590000</v>
+        <v>1311.59</v>
       </c>
       <c r="N24" s="1">
-        <v>-191.751000</v>
+        <v>-191.751</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>40913.507787</v>
+        <v>40913.507787000002</v>
       </c>
       <c r="Q24" s="1">
         <v>11.364863</v>
       </c>
       <c r="R24" s="1">
-        <v>1323.340000</v>
+        <v>1323.34</v>
       </c>
       <c r="S24" s="1">
-        <v>-176.693000</v>
+        <v>-176.69300000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>40924.283836</v>
+        <v>40924.283836000002</v>
       </c>
       <c r="V24" s="1">
-        <v>11.367857</v>
+        <v>11.367857000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1336.930000</v>
+        <v>1336.93</v>
       </c>
       <c r="X24" s="1">
-        <v>-166.232000</v>
+        <v>-166.232</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>40934.851298</v>
+        <v>40934.851298000001</v>
       </c>
       <c r="AA24" s="1">
         <v>11.370792</v>
       </c>
       <c r="AB24" s="1">
-        <v>1355.270000</v>
+        <v>1355.27</v>
       </c>
       <c r="AC24" s="1">
-        <v>-166.860000</v>
+        <v>-166.86</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>40945.665872</v>
+        <v>40945.665871999998</v>
       </c>
       <c r="AF24" s="1">
         <v>11.373796</v>
       </c>
       <c r="AG24" s="1">
-        <v>1368.630000</v>
+        <v>1368.63</v>
       </c>
       <c r="AH24" s="1">
-        <v>-177.569000</v>
+        <v>-177.56899999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>40955.929588</v>
+        <v>40955.929587999999</v>
       </c>
       <c r="AK24" s="1">
         <v>11.376647</v>
       </c>
       <c r="AL24" s="1">
-        <v>1389.930000</v>
+        <v>1389.93</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.616000</v>
+        <v>-208.61600000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>40966.169493</v>
+        <v>40966.169493000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>11.379492</v>
+        <v>11.379492000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1411.880000</v>
+        <v>1411.88</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.784000</v>
+        <v>-252.78399999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>40976.941607</v>
+        <v>40976.941607000001</v>
       </c>
       <c r="AU24" s="1">
         <v>11.382484</v>
       </c>
       <c r="AV24" s="1">
-        <v>1436.510000</v>
+        <v>1436.51</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.936000</v>
+        <v>-312.93599999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>40987.517801</v>
+        <v>40987.517801000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>11.385422</v>
       </c>
       <c r="BA24" s="1">
-        <v>1455.790000</v>
+        <v>1455.79</v>
       </c>
       <c r="BB24" s="1">
-        <v>-365.309000</v>
+        <v>-365.30900000000003</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>40998.177819</v>
+        <v>40998.177818999997</v>
       </c>
       <c r="BE24" s="1">
-        <v>11.388383</v>
+        <v>11.388382999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1540.590000</v>
+        <v>1540.59</v>
       </c>
       <c r="BG24" s="1">
-        <v>-614.835000</v>
+        <v>-614.83500000000004</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>41009.924077</v>
+        <v>41009.924077000003</v>
       </c>
       <c r="BJ24" s="1">
         <v>11.391646</v>
       </c>
       <c r="BK24" s="1">
-        <v>1694.020000</v>
+        <v>1694.02</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1063.130000</v>
+        <v>-1063.1300000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>41020.707597</v>
+        <v>41020.707597000001</v>
       </c>
       <c r="BO24" s="1">
         <v>11.394641</v>
       </c>
       <c r="BP24" s="1">
-        <v>1986.900000</v>
+        <v>1986.9</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1841.240000</v>
+        <v>-1841.24</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>41031.254564</v>
+        <v>41031.254564000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>11.397571</v>
+        <v>11.397570999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>2371.120000</v>
+        <v>2371.12</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2743.630000</v>
+        <v>-2743.63</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>41043.336605</v>
+        <v>41043.336604999997</v>
       </c>
       <c r="BY24" s="1">
-        <v>11.400927</v>
+        <v>11.400926999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2855.440000</v>
+        <v>2855.44</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3726.960000</v>
+        <v>-3726.96</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>41056.548510</v>
+        <v>41056.548510000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>11.404597</v>
+        <v>11.404597000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4286.130000</v>
+        <v>4286.13</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6104.790000</v>
+        <v>-6104.79</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>40882.631300</v>
+        <v>40882.631300000001</v>
       </c>
       <c r="B25" s="1">
-        <v>11.356286</v>
+        <v>11.356286000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1258.730000</v>
+        <v>1258.73</v>
       </c>
       <c r="D25" s="1">
-        <v>-280.731000</v>
+        <v>-280.73099999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>40893.086502</v>
+        <v>40893.086501999998</v>
       </c>
       <c r="G25" s="1">
-        <v>11.359191</v>
+        <v>11.359190999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1280.250000</v>
+        <v>1280.25</v>
       </c>
       <c r="I25" s="1">
-        <v>-244.297000</v>
+        <v>-244.297</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>40903.648281</v>
+        <v>40903.648281000002</v>
       </c>
       <c r="L25" s="1">
-        <v>11.362125</v>
+        <v>11.362125000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1311.690000</v>
+        <v>1311.69</v>
       </c>
       <c r="N25" s="1">
-        <v>-191.794000</v>
+        <v>-191.79400000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>40914.163465</v>
+        <v>40914.163464999998</v>
       </c>
       <c r="Q25" s="1">
         <v>11.365045</v>
       </c>
       <c r="R25" s="1">
-        <v>1323.330000</v>
+        <v>1323.33</v>
       </c>
       <c r="S25" s="1">
-        <v>-176.756000</v>
+        <v>-176.756</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>40924.669041</v>
+        <v>40924.669041000001</v>
       </c>
       <c r="V25" s="1">
-        <v>11.367964</v>
+        <v>11.367964000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1336.880000</v>
+        <v>1336.88</v>
       </c>
       <c r="X25" s="1">
-        <v>-166.236000</v>
+        <v>-166.23599999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>40935.238974</v>
       </c>
       <c r="AA25" s="1">
-        <v>11.370900</v>
+        <v>11.370900000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1355.060000</v>
+        <v>1355.06</v>
       </c>
       <c r="AC25" s="1">
-        <v>-166.881000</v>
+        <v>-166.881</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>40946.008144</v>
+        <v>40946.008143999999</v>
       </c>
       <c r="AF25" s="1">
         <v>11.373891</v>
       </c>
       <c r="AG25" s="1">
-        <v>1368.550000</v>
+        <v>1368.55</v>
       </c>
       <c r="AH25" s="1">
-        <v>-177.563000</v>
+        <v>-177.56299999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>40956.282755</v>
@@ -6497,210 +6913,210 @@
         <v>11.376745</v>
       </c>
       <c r="AL25" s="1">
-        <v>1390.050000</v>
+        <v>1390.05</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.597000</v>
+        <v>-208.59700000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>40966.530612</v>
+        <v>40966.530612000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>11.379592</v>
+        <v>11.379592000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1411.880000</v>
+        <v>1411.88</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.775000</v>
+        <v>-252.77500000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>40977.303686</v>
+        <v>40977.303685999999</v>
       </c>
       <c r="AU25" s="1">
         <v>11.382584</v>
       </c>
       <c r="AV25" s="1">
-        <v>1436.520000</v>
+        <v>1436.52</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.922000</v>
+        <v>-312.92200000000003</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>40987.935961</v>
+        <v>40987.935961000003</v>
       </c>
       <c r="AZ25" s="1">
         <v>11.385538</v>
       </c>
       <c r="BA25" s="1">
-        <v>1455.790000</v>
+        <v>1455.79</v>
       </c>
       <c r="BB25" s="1">
-        <v>-365.241000</v>
+        <v>-365.24099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>40998.607882</v>
+        <v>40998.607881999997</v>
       </c>
       <c r="BE25" s="1">
-        <v>11.388502</v>
+        <v>11.388502000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1540.590000</v>
+        <v>1540.59</v>
       </c>
       <c r="BG25" s="1">
-        <v>-614.835000</v>
+        <v>-614.83500000000004</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>41010.287642</v>
+        <v>41010.287642000003</v>
       </c>
       <c r="BJ25" s="1">
-        <v>11.391747</v>
+        <v>11.391747000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1693.960000</v>
+        <v>1693.96</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1063.020000</v>
+        <v>-1063.02</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>41020.967998</v>
       </c>
       <c r="BO25" s="1">
-        <v>11.394713</v>
+        <v>11.394712999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1986.940000</v>
+        <v>1986.94</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1841.280000</v>
+        <v>-1841.28</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>41031.669679</v>
+        <v>41031.669678999999</v>
       </c>
       <c r="BT25" s="1">
         <v>11.397686</v>
       </c>
       <c r="BU25" s="1">
-        <v>2370.710000</v>
+        <v>2370.71</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2743.340000</v>
+        <v>-2743.34</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>41043.762646</v>
+        <v>41043.762646000003</v>
       </c>
       <c r="BY25" s="1">
         <v>11.401045</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2855.210000</v>
+        <v>2855.21</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3726.160000</v>
+        <v>-3726.16</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>41057.064349</v>
       </c>
       <c r="CD25" s="1">
-        <v>11.404740</v>
+        <v>11.40474</v>
       </c>
       <c r="CE25" s="1">
-        <v>4269.430000</v>
+        <v>4269.43</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6101.240000</v>
+        <v>-6101.24</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>40882.976019</v>
+        <v>40882.976019000002</v>
       </c>
       <c r="B26" s="1">
         <v>11.356382</v>
       </c>
       <c r="C26" s="1">
-        <v>1258.730000</v>
+        <v>1258.73</v>
       </c>
       <c r="D26" s="1">
-        <v>-280.700000</v>
+        <v>-280.7</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>40893.748669</v>
+        <v>40893.748669000001</v>
       </c>
       <c r="G26" s="1">
         <v>11.359375</v>
       </c>
       <c r="H26" s="1">
-        <v>1279.970000</v>
+        <v>1279.97</v>
       </c>
       <c r="I26" s="1">
-        <v>-243.897000</v>
+        <v>-243.89699999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>40904.070873</v>
+        <v>40904.070872999997</v>
       </c>
       <c r="L26" s="1">
         <v>11.362242</v>
       </c>
       <c r="M26" s="1">
-        <v>1311.910000</v>
+        <v>1311.91</v>
       </c>
       <c r="N26" s="1">
-        <v>-191.464000</v>
+        <v>-191.464</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>40914.554809</v>
+        <v>40914.554809000001</v>
       </c>
       <c r="Q26" s="1">
         <v>11.365154</v>
       </c>
       <c r="R26" s="1">
-        <v>1323.280000</v>
+        <v>1323.28</v>
       </c>
       <c r="S26" s="1">
-        <v>-176.724000</v>
+        <v>-176.72399999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>40925.007995</v>
@@ -6709,178 +7125,178 @@
         <v>11.368058</v>
       </c>
       <c r="W26" s="1">
-        <v>1337.010000</v>
+        <v>1337.01</v>
       </c>
       <c r="X26" s="1">
-        <v>-166.183000</v>
+        <v>-166.18299999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>40935.587167</v>
+        <v>40935.587166999998</v>
       </c>
       <c r="AA26" s="1">
         <v>11.370996</v>
       </c>
       <c r="AB26" s="1">
-        <v>1355.090000</v>
+        <v>1355.09</v>
       </c>
       <c r="AC26" s="1">
-        <v>-166.785000</v>
+        <v>-166.785</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>40946.353327</v>
+        <v>40946.353326999997</v>
       </c>
       <c r="AF26" s="1">
         <v>11.373987</v>
       </c>
       <c r="AG26" s="1">
-        <v>1368.590000</v>
+        <v>1368.59</v>
       </c>
       <c r="AH26" s="1">
-        <v>-177.578000</v>
+        <v>-177.578</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>40956.630434</v>
+        <v>40956.630433999999</v>
       </c>
       <c r="AK26" s="1">
         <v>11.376842</v>
       </c>
       <c r="AL26" s="1">
-        <v>1390.000000</v>
+        <v>1390</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.621000</v>
+        <v>-208.62100000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>40966.954692</v>
+        <v>40966.954691999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>11.379710</v>
+        <v>11.379709999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1411.910000</v>
+        <v>1411.91</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.815000</v>
+        <v>-252.815</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>40977.742150</v>
+        <v>40977.742149999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>11.382706</v>
+        <v>11.382706000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1436.530000</v>
+        <v>1436.53</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.001000</v>
+        <v>-313.00099999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>40988.236505</v>
+        <v>40988.236505000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>11.385621</v>
       </c>
       <c r="BA26" s="1">
-        <v>1455.800000</v>
+        <v>1455.8</v>
       </c>
       <c r="BB26" s="1">
-        <v>-365.288000</v>
+        <v>-365.28800000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>40998.897514</v>
+        <v>40998.897513999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>11.388583</v>
+        <v>11.388583000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1540.570000</v>
+        <v>1540.57</v>
       </c>
       <c r="BG26" s="1">
-        <v>-614.876000</v>
+        <v>-614.87599999999998</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>41010.659146</v>
+        <v>41010.659145999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>11.391850</v>
+        <v>11.39185</v>
       </c>
       <c r="BK26" s="1">
-        <v>1693.990000</v>
+        <v>1693.99</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1063.090000</v>
+        <v>-1063.0899999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>41021.351436</v>
+        <v>41021.351435999997</v>
       </c>
       <c r="BO26" s="1">
-        <v>11.394820</v>
+        <v>11.394819999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1986.780000</v>
+        <v>1986.78</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1841.200000</v>
+        <v>-1841.2</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>41032.081855</v>
+        <v>41032.081854999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>11.397801</v>
+        <v>11.397800999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>2370.450000</v>
+        <v>2370.4499999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2742.770000</v>
+        <v>-2742.77</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>41044.183779</v>
+        <v>41044.183778999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>11.401162</v>
+        <v>11.401161999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2854.740000</v>
+        <v>2854.74</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3726.110000</v>
+        <v>-3726.11</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>41057.586142</v>
@@ -6889,15 +7305,16 @@
         <v>11.404885</v>
       </c>
       <c r="CE26" s="1">
-        <v>4276.940000</v>
+        <v>4276.9399999999996</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6123.250000</v>
+        <v>-6123.25</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>